--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_056.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_056.xlsx
@@ -696,145 +696,145 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.02059618641926</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>16.3390157709791</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.30127747174988</v>
+        <v>34.16275865146601</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.83278008445906</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1735562299322</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.1098285634821</v>
+        <v>10.63737719104212</v>
       </c>
       <c r="K2" t="n">
-        <v>21.43560297543877</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.2834971306865</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>77.55746016189948</v>
+        <v>32.17872053429968</v>
       </c>
       <c r="N2" t="n">
-        <v>136.7374177508314</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>204.6008419397412</v>
+        <v>84.35454173959009</v>
       </c>
       <c r="P2" t="n">
-        <v>21.83810173381162</v>
+        <v>60.16279752772274</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.85769630482575</v>
+        <v>37.63427527792204</v>
       </c>
       <c r="R2" t="n">
-        <v>61.02882019622607</v>
+        <v>61.03783641879756</v>
       </c>
       <c r="S2" t="n">
-        <v>77.40819397936313</v>
+        <v>59.87164426433078</v>
       </c>
       <c r="T2" t="n">
-        <v>19.69868341617958</v>
+        <v>139.0152287023119</v>
       </c>
       <c r="U2" t="n">
-        <v>61.95289079455585</v>
+        <v>55.32180507015578</v>
       </c>
       <c r="V2" t="n">
-        <v>61.53000862714063</v>
+        <v>55.99180014202535</v>
       </c>
       <c r="W2" t="n">
-        <v>46.86105207434137</v>
+        <v>74.20267093927505</v>
       </c>
       <c r="X2" t="n">
-        <v>64.69453858174788</v>
+        <v>51.36151143688337</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.0754579979728</v>
+        <v>23.51885066726648</v>
       </c>
       <c r="Z2" t="n">
-        <v>60.5528063171026</v>
+        <v>79.54234788773869</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.80634337306441</v>
+        <v>89.12755355429417</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.29833775366056</v>
+        <v>45.65491426835125</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.42129963286379</v>
+        <v>138.0831702824661</v>
       </c>
       <c r="AD2" t="n">
-        <v>91.21837406252847</v>
+        <v>92.42024451347505</v>
       </c>
       <c r="AE2" t="n">
-        <v>121.7307875104992</v>
+        <v>120.6591190958585</v>
       </c>
       <c r="AF2" t="n">
-        <v>163.8893580859283</v>
+        <v>95.18803932035688</v>
       </c>
       <c r="AG2" t="n">
-        <v>39.66300930806838</v>
+        <v>121.5749546617913</v>
       </c>
       <c r="AH2" t="n">
-        <v>174.8468965777562</v>
+        <v>109.883376145337</v>
       </c>
       <c r="AI2" t="n">
-        <v>151.322650006008</v>
+        <v>84.89224822018096</v>
       </c>
       <c r="AJ2" t="n">
-        <v>96.44889467171811</v>
+        <v>157.7530281107329</v>
       </c>
       <c r="AK2" t="n">
-        <v>80.03084361812192</v>
+        <v>110.3540503387687</v>
       </c>
       <c r="AL2" t="n">
-        <v>23.73266066058445</v>
+        <v>32.67511507575651</v>
       </c>
       <c r="AM2" t="n">
-        <v>56.0497992366322</v>
+        <v>12.92940816475425</v>
       </c>
       <c r="AN2" t="n">
-        <v>40.1944900083347</v>
+        <v>55.87205321837956</v>
       </c>
       <c r="AO2" t="n">
-        <v>35.69449965870173</v>
+        <v>6.447631222952473</v>
       </c>
       <c r="AP2" t="n">
-        <v>24.80399281795103</v>
+        <v>27.22659586133232</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25.81668367058957</v>
+        <v>33.0700315174746</v>
       </c>
       <c r="AR2" t="n">
-        <v>18.53517630222107</v>
+        <v>16.85613593539269</v>
       </c>
       <c r="AS2" t="n">
-        <v>14.18131963205547</v>
+        <v>32.3726112948976</v>
       </c>
       <c r="AT2" t="n">
-        <v>19.37830938202682</v>
+        <v>24.04828772791573</v>
       </c>
       <c r="AU2" t="n">
-        <v>84.40572370137383</v>
+        <v>28.59976783036722</v>
       </c>
       <c r="AV2" t="n">
-        <v>15.37578450867468</v>
+        <v>56.27129399958493</v>
       </c>
       <c r="AW2" t="n">
-        <v>20.88057158774184</v>
+        <v>41.62791249255521</v>
       </c>
       <c r="AX2" t="n">
-        <v>18.72490268150145</v>
+        <v>42.35499722149211</v>
       </c>
     </row>
     <row r="3">
@@ -845,148 +845,148 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.100643788217792</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7055643557600839</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.614109097025296</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.345020918527982</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.983609357502934</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.929189928428764</v>
+        <v>3.350622413017361</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.991337969459046</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.959411374269841</v>
+        <v>2.302777806893808</v>
       </c>
       <c r="N3" t="n">
-        <v>8.106603287453032</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.202984757039439</v>
+        <v>3.451405622028852</v>
       </c>
       <c r="P3" t="n">
-        <v>6.373135539922996</v>
+        <v>5.940936848121748</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.202311752525562</v>
+        <v>5.412908761594757</v>
       </c>
       <c r="R3" t="n">
-        <v>6.125324050199005</v>
+        <v>1.876393828868271</v>
       </c>
       <c r="S3" t="n">
-        <v>4.443603565253094</v>
+        <v>3.393200071716832</v>
       </c>
       <c r="T3" t="n">
-        <v>3.620206677678807</v>
+        <v>5.884266299749496</v>
       </c>
       <c r="U3" t="n">
-        <v>4.061696382492396</v>
+        <v>1.325136748789621</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>10.72961114293441</v>
       </c>
       <c r="W3" t="n">
-        <v>4.750550171246046</v>
+        <v>6.799785337707329</v>
       </c>
       <c r="X3" t="n">
-        <v>7.007115632009605</v>
+        <v>8.027562867101739</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.799972013442861</v>
+        <v>2.755316337214858</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.870047896171305</v>
+        <v>4.491639126486828</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.072873425920518</v>
+        <v>4.648802659573695</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.667796980111719</v>
+        <v>4.785934968822833</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.682574015709058</v>
+        <v>5.530177077720475</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.912006437476329</v>
+        <v>5.353873434165784</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.49298567457116</v>
+        <v>7.856688452921842</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.230125896855568</v>
+        <v>5.942162419601808</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.114435203420516</v>
+        <v>3.835142957568147</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.766639654376785</v>
+        <v>4.008498387788375</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.969523969350116</v>
+        <v>8.996179387915502</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.497600977165062</v>
+        <v>3.940693641232305</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.716566625503201</v>
+        <v>6.698416416720491</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.877619951192066</v>
+        <v>1.49769725639322</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.643313139121894</v>
+        <v>7.822549605212299</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.233108395107648</v>
+        <v>1.62966541572776</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.594242315069036</v>
+        <v>6.833517047630558</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.473774798149103</v>
+        <v>4.065211397647066</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.354733260245824</v>
+        <v>3.726892111162126</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.19073181691696</v>
+        <v>2.540578577688438</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.791390958203585</v>
+        <v>5.989644757898447</v>
       </c>
       <c r="AT3" t="n">
-        <v>5.937185360600722</v>
+        <v>3.942835665117119</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.405572081116143</v>
+        <v>2.623915223340518</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.6763784548158</v>
+        <v>5.158950223763813</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.3315566907301</v>
+        <v>6.171964561402927</v>
       </c>
       <c r="AX3" t="n">
-        <v>2.060521748829372</v>
+        <v>1.521717391107925</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10.18632545582479</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.290616029711346</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>10.29630427917885</v>
       </c>
       <c r="F4" t="n">
-        <v>14.41966287879402</v>
+        <v>1.613318617049215</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.112356461981369</v>
+        <v>36.74393123734826</v>
       </c>
       <c r="I4" t="n">
-        <v>16.51077942090284</v>
+        <v>24.84229820649233</v>
       </c>
       <c r="J4" t="n">
-        <v>165.0178906775582</v>
+        <v>34.71419118439137</v>
       </c>
       <c r="K4" t="n">
-        <v>157.2304613750685</v>
+        <v>98.53529851555523</v>
       </c>
       <c r="L4" t="n">
-        <v>41.4416122052698</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.581899009777731</v>
+        <v>133.620043968312</v>
       </c>
       <c r="N4" t="n">
-        <v>97.39481366092402</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17.98149024937332</v>
+        <v>130.2571663359964</v>
       </c>
       <c r="P4" t="n">
-        <v>17.82435138034086</v>
+        <v>28.25090670794493</v>
       </c>
       <c r="Q4" t="n">
-        <v>109.5209095172076</v>
+        <v>60.76080041928381</v>
       </c>
       <c r="R4" t="n">
-        <v>20.65201350427614</v>
+        <v>30.17337546560089</v>
       </c>
       <c r="S4" t="n">
-        <v>45.15712052117151</v>
+        <v>106.3661863746412</v>
       </c>
       <c r="T4" t="n">
-        <v>114.1360123846546</v>
+        <v>5.788778902967582</v>
       </c>
       <c r="U4" t="n">
-        <v>62.57796549666491</v>
+        <v>63.69458827925301</v>
       </c>
       <c r="V4" t="n">
-        <v>62.60588789274195</v>
+        <v>38.84302020047031</v>
       </c>
       <c r="W4" t="n">
-        <v>128.3849361931252</v>
+        <v>19.93722555580576</v>
       </c>
       <c r="X4" t="n">
-        <v>131.3261240959272</v>
+        <v>53.86625404785755</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.43791711110646</v>
+        <v>61.86530065297077</v>
       </c>
       <c r="Z4" t="n">
-        <v>68.67888124914266</v>
+        <v>157.2816600858282</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.28526371318858</v>
+        <v>46.68483470903853</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.31524383722498</v>
+        <v>23.03560587347278</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.5746688231952</v>
+        <v>31.67394372585639</v>
       </c>
       <c r="AD4" t="n">
-        <v>77.26852947839554</v>
+        <v>42.78400599316313</v>
       </c>
       <c r="AE4" t="n">
-        <v>78.45359224717447</v>
+        <v>51.33999347252954</v>
       </c>
       <c r="AF4" t="n">
-        <v>97.84856596919776</v>
+        <v>42.13692909007126</v>
       </c>
       <c r="AG4" t="n">
-        <v>165.9205801985978</v>
+        <v>97.74828690385915</v>
       </c>
       <c r="AH4" t="n">
-        <v>38.08410425996441</v>
+        <v>41.01835954510908</v>
       </c>
       <c r="AI4" t="n">
-        <v>19.53800158935169</v>
+        <v>40.94587951854028</v>
       </c>
       <c r="AJ4" t="n">
-        <v>76.44603306993581</v>
+        <v>114.4028518641507</v>
       </c>
       <c r="AK4" t="n">
-        <v>80.06547668505021</v>
+        <v>60.62075552366561</v>
       </c>
       <c r="AL4" t="n">
-        <v>47.08557170548812</v>
+        <v>118.4543058966992</v>
       </c>
       <c r="AM4" t="n">
-        <v>10.21209769034085</v>
+        <v>40.84753090590993</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.46090423789947</v>
+        <v>12.90331028495063</v>
       </c>
       <c r="AO4" t="n">
-        <v>29.81857360380858</v>
+        <v>26.67693802660621</v>
       </c>
       <c r="AP4" t="n">
-        <v>8.64561194812195</v>
+        <v>2.375677282873117</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.33769066743541</v>
+        <v>33.82918772132342</v>
       </c>
       <c r="AR4" t="n">
-        <v>12.12615211892339</v>
+        <v>13.44383351127045</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.044928868605789</v>
+        <v>2.103208562670154</v>
       </c>
       <c r="AT4" t="n">
-        <v>20.92070555790209</v>
+        <v>19.08947971672409</v>
       </c>
       <c r="AU4" t="n">
-        <v>14.14104425855212</v>
+        <v>13.95874934969851</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.35236335745624</v>
+        <v>14.24318823367396</v>
       </c>
       <c r="AW4" t="n">
-        <v>12.52552513830112</v>
+        <v>11.23640645325845</v>
       </c>
       <c r="AX4" t="n">
-        <v>12.21437958978996</v>
+        <v>15.54504466987345</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>30.95818300500477</v>
+        <v>33.11886058889028</v>
       </c>
       <c r="D5" t="n">
-        <v>17.25884414757634</v>
+        <v>15.94676257629196</v>
       </c>
       <c r="E5" t="n">
-        <v>30.1040113771974</v>
+        <v>22.35926999331337</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.76321239731689</v>
+        <v>10.07800445730677</v>
       </c>
       <c r="H5" t="n">
-        <v>88.89089665348337</v>
+        <v>24.75046063788789</v>
       </c>
       <c r="I5" t="n">
-        <v>49.64542570318099</v>
+        <v>17.84856294058423</v>
       </c>
       <c r="J5" t="n">
-        <v>111.3445119013306</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>24.81168572251627</v>
+        <v>36.09757121935423</v>
       </c>
       <c r="L5" t="n">
-        <v>57.18147256875973</v>
+        <v>122.5929404996714</v>
       </c>
       <c r="M5" t="n">
-        <v>188.264143904262</v>
+        <v>20.20755974209225</v>
       </c>
       <c r="N5" t="n">
-        <v>60.36245360020641</v>
+        <v>21.93791640126563</v>
       </c>
       <c r="O5" t="n">
-        <v>34.72116587549959</v>
+        <v>34.79071170159406</v>
       </c>
       <c r="P5" t="n">
-        <v>68.49188878038356</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>157.4250064208208</v>
+        <v>94.64664272995969</v>
       </c>
       <c r="R5" t="n">
-        <v>27.06314000934239</v>
+        <v>43.96698848664059</v>
       </c>
       <c r="S5" t="n">
-        <v>46.23435760223717</v>
+        <v>162.0436707639223</v>
       </c>
       <c r="T5" t="n">
-        <v>21.58131014990863</v>
+        <v>67.6065581203608</v>
       </c>
       <c r="U5" t="n">
-        <v>36.86002669227378</v>
+        <v>108.5315573723005</v>
       </c>
       <c r="V5" t="n">
-        <v>24.04451968609234</v>
+        <v>66.40625018963979</v>
       </c>
       <c r="W5" t="n">
-        <v>72.80850681373208</v>
+        <v>21.56869513779353</v>
       </c>
       <c r="X5" t="n">
-        <v>4.685294785614946</v>
+        <v>30.27668934272655</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.02692554224262</v>
+        <v>115.1644754422085</v>
       </c>
       <c r="Z5" t="n">
-        <v>57.62048235130965</v>
+        <v>34.00136075620967</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.52736598793291</v>
+        <v>21.32565983114456</v>
       </c>
       <c r="AB5" t="n">
-        <v>52.74832557691498</v>
+        <v>21.70345289182982</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.08654201713385</v>
+        <v>17.09824144462091</v>
       </c>
       <c r="AD5" t="n">
-        <v>206.3029369197921</v>
+        <v>66.16890428348088</v>
       </c>
       <c r="AE5" t="n">
-        <v>67.61204592386359</v>
+        <v>0.850901443631443</v>
       </c>
       <c r="AF5" t="n">
-        <v>40.47955591574704</v>
+        <v>37.85994621461715</v>
       </c>
       <c r="AG5" t="n">
-        <v>41.08400876385903</v>
+        <v>34.16593295095932</v>
       </c>
       <c r="AH5" t="n">
-        <v>42.22206878515652</v>
+        <v>72.72289472654045</v>
       </c>
       <c r="AI5" t="n">
-        <v>12.07548089745098</v>
+        <v>56.47937732831942</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19.53246666563282</v>
+        <v>12.41303507657082</v>
       </c>
       <c r="AK5" t="n">
-        <v>48.84868139941322</v>
+        <v>44.64697555142807</v>
       </c>
       <c r="AL5" t="n">
-        <v>27.4169078225855</v>
+        <v>19.28055076388594</v>
       </c>
       <c r="AM5" t="n">
-        <v>18.58620231843519</v>
+        <v>14.30700859107078</v>
       </c>
       <c r="AN5" t="n">
-        <v>37.07134684640283</v>
+        <v>35.75103481533359</v>
       </c>
       <c r="AO5" t="n">
-        <v>13.49526251637226</v>
+        <v>12.85486237792212</v>
       </c>
       <c r="AP5" t="n">
-        <v>35.71877047930472</v>
+        <v>31.47587109791625</v>
       </c>
       <c r="AQ5" t="n">
-        <v>42.48172103893652</v>
+        <v>33.89972165355533</v>
       </c>
       <c r="AR5" t="n">
-        <v>30.17530185506763</v>
+        <v>16.04419925235236</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>54.19395688259428</v>
       </c>
       <c r="AT5" t="n">
-        <v>9.232983835173908</v>
+        <v>30.32234961453348</v>
       </c>
       <c r="AU5" t="n">
-        <v>10.65898931020704</v>
+        <v>33.40283782045865</v>
       </c>
       <c r="AV5" t="n">
-        <v>25.62081478537616</v>
+        <v>20.81213004134581</v>
       </c>
       <c r="AW5" t="n">
-        <v>17.27219784120982</v>
+        <v>25.50984516358876</v>
       </c>
       <c r="AX5" t="n">
-        <v>23.0592515533462</v>
+        <v>25.59384125399301</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>3.869118606293493</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.415818988838822</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.568607065055796</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>27.51817379982358</v>
       </c>
       <c r="G6" t="n">
-        <v>8.461469877934986</v>
+        <v>123.1719676112122</v>
       </c>
       <c r="H6" t="n">
-        <v>1.94052339090992</v>
+        <v>14.8526641884039</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.44815126232794</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>61.87391553893901</v>
+        <v>9.326746038626053</v>
       </c>
       <c r="L6" t="n">
-        <v>23.24651060626685</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>87.10319053102761</v>
+        <v>6.014794429000701</v>
       </c>
       <c r="N6" t="n">
-        <v>10.84978802684477</v>
+        <v>24.65389287166325</v>
       </c>
       <c r="O6" t="n">
-        <v>22.15180695909645</v>
+        <v>10.32372753477431</v>
       </c>
       <c r="P6" t="n">
-        <v>41.33007221034712</v>
+        <v>141.0256551304144</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.80732315703699</v>
+        <v>10.20215690633759</v>
       </c>
       <c r="R6" t="n">
-        <v>38.69841463910431</v>
+        <v>14.4988132773891</v>
       </c>
       <c r="S6" t="n">
-        <v>34.27368487313245</v>
+        <v>8.665892861502908</v>
       </c>
       <c r="T6" t="n">
-        <v>16.74112322186431</v>
+        <v>23.71607770229279</v>
       </c>
       <c r="U6" t="n">
-        <v>19.96544928155265</v>
+        <v>34.46398237154182</v>
       </c>
       <c r="V6" t="n">
-        <v>36.5167064683063</v>
+        <v>13.81460434312473</v>
       </c>
       <c r="W6" t="n">
-        <v>41.18186113570597</v>
+        <v>73.40019334739463</v>
       </c>
       <c r="X6" t="n">
-        <v>20.3440851535361</v>
+        <v>43.17927367578073</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.97465974354838</v>
+        <v>16.6117660273419</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.65233379142186</v>
+        <v>19.55486725019944</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.40043725861639</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.06560452638392</v>
+        <v>13.86982732284271</v>
       </c>
       <c r="AC6" t="n">
-        <v>62.61071238215806</v>
+        <v>2.254342443785816</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.54841037265665</v>
+        <v>10.99763294292236</v>
       </c>
       <c r="AE6" t="n">
-        <v>27.38157359128681</v>
+        <v>12.27679715897933</v>
       </c>
       <c r="AF6" t="n">
-        <v>28.65346044424556</v>
+        <v>2.428781768972631</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.57239327901903</v>
+        <v>10.25519518464418</v>
       </c>
       <c r="AH6" t="n">
-        <v>23.77854423379804</v>
+        <v>18.44630637358008</v>
       </c>
       <c r="AI6" t="n">
-        <v>12.25947475173171</v>
+        <v>6.622464515438859</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.17062532097525</v>
+        <v>11.87453577362689</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.052187929466361</v>
+        <v>7.235227355819377</v>
       </c>
       <c r="AL6" t="n">
-        <v>5.914527467823061</v>
+        <v>8.985736558341403</v>
       </c>
       <c r="AM6" t="n">
-        <v>4.562050877119749</v>
+        <v>2.684101503950217</v>
       </c>
       <c r="AN6" t="n">
-        <v>10.27907097884998</v>
+        <v>5.576256791638537</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.792307483934742</v>
+        <v>0.07132962020435651</v>
       </c>
       <c r="AP6" t="n">
-        <v>7.045934108993121</v>
+        <v>5.335945714297011</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.970668022427601</v>
+        <v>6.891718332688361</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.753755414421824</v>
+        <v>2.660172172212744</v>
       </c>
       <c r="AS6" t="n">
-        <v>4.824966995627227</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9740231216827376</v>
+        <v>2.136439599060638</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.888932043102307</v>
+        <v>4.809051854910718</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.202960827408474</v>
+        <v>2.233789024997828</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.546414800420436</v>
+        <v>2.865184778310753</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.451355580005244</v>
+        <v>2.967476008380214</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.917963587835711</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.597674914400454</v>
+        <v>11.33278349333036</v>
       </c>
       <c r="E7" t="n">
-        <v>10.80482657006488</v>
+        <v>1.258950848347133</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>18.44528159924915</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>29.58541950010838</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>15.48035994344788</v>
+        <v>46.33751842380469</v>
       </c>
       <c r="J7" t="n">
-        <v>7.293063014965569</v>
+        <v>15.77369882375523</v>
       </c>
       <c r="K7" t="n">
-        <v>37.57526280069508</v>
+        <v>22.81081418894393</v>
       </c>
       <c r="L7" t="n">
-        <v>29.07101249884473</v>
+        <v>35.21660265812885</v>
       </c>
       <c r="M7" t="n">
-        <v>34.77649854794567</v>
+        <v>43.34734169444425</v>
       </c>
       <c r="N7" t="n">
-        <v>56.25291390196841</v>
+        <v>66.73765713973302</v>
       </c>
       <c r="O7" t="n">
-        <v>64.19096882677047</v>
+        <v>9.732300053132173</v>
       </c>
       <c r="P7" t="n">
-        <v>91.30632821902607</v>
+        <v>15.50076669828239</v>
       </c>
       <c r="Q7" t="n">
-        <v>23.92782582954261</v>
+        <v>55.52321146514893</v>
       </c>
       <c r="R7" t="n">
-        <v>116.9492727939274</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>16.17431769330371</v>
+        <v>99.95223270031229</v>
       </c>
       <c r="T7" t="n">
-        <v>40.0253956090414</v>
+        <v>11.57910450042498</v>
       </c>
       <c r="U7" t="n">
-        <v>21.32359535300369</v>
+        <v>29.6580943935806</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.05942049590934</v>
       </c>
       <c r="W7" t="n">
-        <v>11.52905579594569</v>
+        <v>152.4318321257126</v>
       </c>
       <c r="X7" t="n">
-        <v>10.51926918494649</v>
+        <v>21.06869602105646</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.369179667958166</v>
+        <v>57.25210963352671</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.84688469162875</v>
+        <v>44.45444082757466</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.417121398802884</v>
+        <v>12.8591182936726</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.83736858766287</v>
+        <v>3.15312923448561</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>6.305292401017988</v>
       </c>
       <c r="AD7" t="n">
-        <v>69.48714557153336</v>
+        <v>13.38149275148832</v>
       </c>
       <c r="AE7" t="n">
-        <v>23.94587032350006</v>
+        <v>8.898134938803926</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.380257349197521</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.985674960931315</v>
+        <v>2.402908586742171</v>
       </c>
       <c r="AH7" t="n">
-        <v>22.3954574972851</v>
+        <v>25.0369874593411</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.103794070578273</v>
+        <v>16.69076344691738</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>5.223605302384722</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.2999583786590811</v>
+        <v>5.5518253476337</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.733825757338504</v>
+        <v>5.351670725241337</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>9.436272860692121</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.630200672532659</v>
+        <v>4.717500392581231</v>
       </c>
       <c r="AO7" t="n">
-        <v>20.43986697004566</v>
+        <v>0.2932549202987849</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.476748089213539</v>
+        <v>15.37985028161027</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.097737237784926</v>
+        <v>22.99553458114078</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.500106140351001</v>
+        <v>10.5096804014848</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.97371110708732</v>
+        <v>4.153050760810428</v>
       </c>
       <c r="AT7" t="n">
-        <v>24.73304837462655</v>
+        <v>2.183204905415224</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.071804834749246</v>
+        <v>6.900786489201386</v>
       </c>
       <c r="AV7" t="n">
-        <v>7.767452466727109</v>
+        <v>7.621427428088467</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.805448294941851</v>
+        <v>2.78514678907542</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.69018005569242</v>
+        <v>7.408075329832061</v>
       </c>
     </row>
     <row r="8">
@@ -1605,148 +1605,148 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>31.50760415096187</v>
+        <v>14.22356711893392</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.126099072746918</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>37.07266396470229</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>17.06193982599119</v>
       </c>
       <c r="H8" t="n">
-        <v>12.92685187570103</v>
+        <v>23.01306540589581</v>
       </c>
       <c r="I8" t="n">
-        <v>15.15399557789441</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.02022015125566</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>122.690131208373</v>
+        <v>1.462258234840942</v>
       </c>
       <c r="L8" t="n">
-        <v>11.66537940006408</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>68.24048980608784</v>
+        <v>53.94101300552501</v>
       </c>
       <c r="N8" t="n">
-        <v>207.7625681797593</v>
+        <v>71.30445056828756</v>
       </c>
       <c r="O8" t="n">
-        <v>105.4932278409953</v>
+        <v>100.6868045218959</v>
       </c>
       <c r="P8" t="n">
-        <v>81.11483671832985</v>
+        <v>146.3161911158867</v>
       </c>
       <c r="Q8" t="n">
-        <v>77.84933522549895</v>
+        <v>52.52390371796681</v>
       </c>
       <c r="R8" t="n">
-        <v>77.91470602499876</v>
+        <v>28.54031193849834</v>
       </c>
       <c r="S8" t="n">
-        <v>54.55589493630882</v>
+        <v>40.15831275503602</v>
       </c>
       <c r="T8" t="n">
-        <v>45.49520064744808</v>
+        <v>36.57044943591296</v>
       </c>
       <c r="U8" t="n">
-        <v>68.03254663092208</v>
+        <v>41.09918778341102</v>
       </c>
       <c r="V8" t="n">
-        <v>40.79261603669052</v>
+        <v>44.23271079952349</v>
       </c>
       <c r="W8" t="n">
-        <v>94.59792539905605</v>
+        <v>116.6842654527499</v>
       </c>
       <c r="X8" t="n">
-        <v>24.5172040858981</v>
+        <v>30.73825574846645</v>
       </c>
       <c r="Y8" t="n">
-        <v>65.20655144035427</v>
+        <v>26.66391848344625</v>
       </c>
       <c r="Z8" t="n">
-        <v>39.924565550875</v>
+        <v>130.6162778148091</v>
       </c>
       <c r="AA8" t="n">
-        <v>52.49541642121876</v>
+        <v>238.7995119540645</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.1567043261191</v>
+        <v>119.6655729425032</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.1660684991288</v>
+        <v>104.8542152063235</v>
       </c>
       <c r="AD8" t="n">
-        <v>110.4183789966781</v>
+        <v>107.9412605650646</v>
       </c>
       <c r="AE8" t="n">
-        <v>83.43984473754003</v>
+        <v>43.62322821392895</v>
       </c>
       <c r="AF8" t="n">
-        <v>77.50549320340308</v>
+        <v>132.8777422610229</v>
       </c>
       <c r="AG8" t="n">
-        <v>199.4989458238121</v>
+        <v>85.2947050143265</v>
       </c>
       <c r="AH8" t="n">
-        <v>130.1589842227289</v>
+        <v>86.7088905167445</v>
       </c>
       <c r="AI8" t="n">
-        <v>85.55152737603925</v>
+        <v>87.30180837906136</v>
       </c>
       <c r="AJ8" t="n">
-        <v>30.76644711895371</v>
+        <v>96.37479818927207</v>
       </c>
       <c r="AK8" t="n">
-        <v>66.94930621135035</v>
+        <v>157.1149842317536</v>
       </c>
       <c r="AL8" t="n">
-        <v>94.3975196748497</v>
+        <v>69.94520346724663</v>
       </c>
       <c r="AM8" t="n">
-        <v>45.9664814778907</v>
+        <v>19.08046578778221</v>
       </c>
       <c r="AN8" t="n">
-        <v>77.39076703454465</v>
+        <v>13.47324912242308</v>
       </c>
       <c r="AO8" t="n">
-        <v>28.50702679199646</v>
+        <v>10.85785096077122</v>
       </c>
       <c r="AP8" t="n">
-        <v>23.36317575253086</v>
+        <v>32.30299920954689</v>
       </c>
       <c r="AQ8" t="n">
-        <v>22.12396974654332</v>
+        <v>11.80291908335446</v>
       </c>
       <c r="AR8" t="n">
-        <v>21.25046886975336</v>
+        <v>12.4842893101359</v>
       </c>
       <c r="AS8" t="n">
-        <v>18.26064623991546</v>
+        <v>47.71612226819244</v>
       </c>
       <c r="AT8" t="n">
-        <v>22.83610442279121</v>
+        <v>15.2535517745558</v>
       </c>
       <c r="AU8" t="n">
-        <v>25.61368570460058</v>
+        <v>55.47682304082718</v>
       </c>
       <c r="AV8" t="n">
-        <v>10.82043750508144</v>
+        <v>21.03318258183836</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.29332887344845</v>
+        <v>80.12670703987337</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.92422227579917</v>
+        <v>25.83609922967825</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.011669600190635</v>
       </c>
       <c r="D9" t="n">
-        <v>4.064051830852414</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.558381059158166</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.406979517940228</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.909242661457921</v>
       </c>
       <c r="H9" t="n">
-        <v>3.272833122053995</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.20564919909627</v>
+        <v>1.473041319501493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.49722755795564</v>
+        <v>0.252037070512003</v>
       </c>
       <c r="K9" t="n">
-        <v>1.285589716403478</v>
+        <v>6.15085980847057</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>7.921279040627979</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8234737394028074</v>
+        <v>3.151462347645438</v>
       </c>
       <c r="N9" t="n">
-        <v>10.14200135703023</v>
+        <v>6.504957518963697</v>
       </c>
       <c r="O9" t="n">
-        <v>4.194393007882281</v>
+        <v>3.943922043889931</v>
       </c>
       <c r="P9" t="n">
-        <v>5.270286424883453</v>
+        <v>0.286178308199599</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.936803298520006</v>
+        <v>3.589242548709587</v>
       </c>
       <c r="R9" t="n">
-        <v>2.513197152767417</v>
+        <v>3.0051449086872</v>
       </c>
       <c r="S9" t="n">
-        <v>7.062623239068119</v>
+        <v>4.083067279422012</v>
       </c>
       <c r="T9" t="n">
-        <v>6.079591580731742</v>
+        <v>5.117121470883511</v>
       </c>
       <c r="U9" t="n">
-        <v>3.482696628163583</v>
+        <v>6.271778071064594</v>
       </c>
       <c r="V9" t="n">
-        <v>3.88348322440761</v>
+        <v>3.657276557179211</v>
       </c>
       <c r="W9" t="n">
-        <v>1.92827497958393</v>
+        <v>5.171031985113983</v>
       </c>
       <c r="X9" t="n">
-        <v>5.519907817855447</v>
+        <v>2.245815712991303</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.976269930896142</v>
+        <v>7.786932747882363</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.100532342516864</v>
+        <v>3.893222998864924</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.084007387283584</v>
+        <v>3.342290849149737</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.715817148268643</v>
+        <v>2.930919556878437</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.68011224392194</v>
+        <v>4.068152543938281</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.053253210812045</v>
+        <v>3.743769077020069</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.148382251618874</v>
+        <v>8.342188709150607</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9814615049689496</v>
+        <v>4.426992959068584</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.987289231916798</v>
+        <v>4.60828233702463</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.650433674910294</v>
+        <v>5.931175349725916</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.578663366042774</v>
+        <v>6.558778694215189</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.0238790479928</v>
+        <v>2.828771201111061</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.205310813126993</v>
+        <v>6.206054072616665</v>
       </c>
       <c r="AL9" t="n">
-        <v>3.537976516011586</v>
+        <v>5.949366015164061</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.526810922447592</v>
+        <v>4.384646706152639</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.520838795572204</v>
+        <v>4.786982652377402</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.804613791447404</v>
+        <v>4.452955427361192</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.94834935306818</v>
+        <v>3.006938680675024</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.781711828470215</v>
+        <v>3.919962880863957</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.868441352298747</v>
+        <v>3.126516678879378</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.625771781627714</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.8089461172899186</v>
+        <v>1.827251123358576</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.962765464085233</v>
+        <v>2.343467354746442</v>
       </c>
       <c r="AV9" t="n">
-        <v>3.991223076250896</v>
+        <v>5.112648051861447</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.585403115460538</v>
+        <v>3.34868491472885</v>
       </c>
       <c r="AX9" t="n">
-        <v>4.124535487200808</v>
+        <v>3.416642817572865</v>
       </c>
     </row>
     <row r="10">
@@ -1912,145 +1912,145 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.74890752432852</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9.710769198319991</v>
+        <v>52.26021262941273</v>
       </c>
       <c r="F10" t="n">
-        <v>38.82428567713666</v>
+        <v>5.306244008298631</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.30328234052017</v>
       </c>
       <c r="H10" t="n">
-        <v>10.35855520440792</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>34.61294450393122</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>97.08614621750644</v>
+        <v>107.8067840217656</v>
       </c>
       <c r="K10" t="n">
-        <v>22.42124091201327</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>175.4188101668782</v>
+        <v>86.06688674583309</v>
       </c>
       <c r="M10" t="n">
-        <v>202.9608200782695</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>60.51505660862367</v>
+        <v>118.2422517665198</v>
       </c>
       <c r="O10" t="n">
-        <v>80.46347474362194</v>
+        <v>62.12048755227769</v>
       </c>
       <c r="P10" t="n">
-        <v>48.13403103276644</v>
+        <v>100.8714752644113</v>
       </c>
       <c r="Q10" t="n">
-        <v>115.3589202300249</v>
+        <v>53.85352121385755</v>
       </c>
       <c r="R10" t="n">
-        <v>129.9018180632501</v>
+        <v>40.59691683642184</v>
       </c>
       <c r="S10" t="n">
-        <v>49.15396371819663</v>
+        <v>20.01755526745159</v>
       </c>
       <c r="T10" t="n">
-        <v>44.89711570739556</v>
+        <v>22.52389215300559</v>
       </c>
       <c r="U10" t="n">
-        <v>59.5618309591427</v>
+        <v>81.87194009555061</v>
       </c>
       <c r="V10" t="n">
-        <v>257.7026656296291</v>
+        <v>82.66661582780741</v>
       </c>
       <c r="W10" t="n">
-        <v>56.51807499964461</v>
+        <v>8.919618770624975</v>
       </c>
       <c r="X10" t="n">
-        <v>27.20317958389011</v>
+        <v>37.26533073132982</v>
       </c>
       <c r="Y10" t="n">
-        <v>55.57781665805263</v>
+        <v>75.90580112125716</v>
       </c>
       <c r="Z10" t="n">
-        <v>100.504729787562</v>
+        <v>64.22343130164377</v>
       </c>
       <c r="AA10" t="n">
-        <v>109.8991654116864</v>
+        <v>113.098593951182</v>
       </c>
       <c r="AB10" t="n">
-        <v>67.61668848684359</v>
+        <v>45.21161227337887</v>
       </c>
       <c r="AC10" t="n">
-        <v>89.79937118100582</v>
+        <v>40.48364219960224</v>
       </c>
       <c r="AD10" t="n">
-        <v>98.29420866078753</v>
+        <v>80.03784612543994</v>
       </c>
       <c r="AE10" t="n">
-        <v>114.4281874343821</v>
+        <v>74.80046281538415</v>
       </c>
       <c r="AF10" t="n">
-        <v>34.12873669434566</v>
+        <v>23.59943181420321</v>
       </c>
       <c r="AG10" t="n">
-        <v>34.05229090765689</v>
+        <v>23.41063508912896</v>
       </c>
       <c r="AH10" t="n">
-        <v>50.66558918676159</v>
+        <v>50.55629261396344</v>
       </c>
       <c r="AI10" t="n">
-        <v>16.10998374594078</v>
+        <v>20.56669731480013</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40.46755598062412</v>
+        <v>113.416829177162</v>
       </c>
       <c r="AK10" t="n">
-        <v>26.40852878997929</v>
+        <v>46.86889996740269</v>
       </c>
       <c r="AL10" t="n">
-        <v>26.92758039794664</v>
+        <v>94.70510099649643</v>
       </c>
       <c r="AM10" t="n">
-        <v>33.44884602401598</v>
+        <v>4.077089789017267</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.92293302194267</v>
+        <v>28.08459353068855</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.150529323985642</v>
+        <v>7.116220001181587</v>
       </c>
       <c r="AP10" t="n">
-        <v>34.23522882058939</v>
+        <v>17.36016363810192</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13.57613123600971</v>
+        <v>10.18018737142062</v>
       </c>
       <c r="AR10" t="n">
-        <v>5.793787573843362</v>
+        <v>19.77718012890487</v>
       </c>
       <c r="AS10" t="n">
-        <v>18.21789872658796</v>
+        <v>11.19789990715728</v>
       </c>
       <c r="AT10" t="n">
-        <v>13.04707536454083</v>
+        <v>13.42079511712798</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.641997932917342</v>
+        <v>25.09726187535652</v>
       </c>
       <c r="AV10" t="n">
-        <v>19.44002287299589</v>
+        <v>14.65900955005598</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.669289581339676</v>
+        <v>13.02263831650415</v>
       </c>
       <c r="AX10" t="n">
-        <v>8.50944359650109</v>
+        <v>8.360836222678337</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>38.68190405203034</v>
       </c>
       <c r="D11" t="n">
-        <v>3.415829673654592</v>
+        <v>38.80442329783127</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.146450260167</v>
+        <v>10.42295001596925</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.275220315696572</v>
       </c>
       <c r="H11" t="n">
-        <v>29.44815315689912</v>
+        <v>14.92182327646043</v>
       </c>
       <c r="I11" t="n">
-        <v>123.0226840832203</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>33.7336041269963</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>18.37684145572161</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>92.99080990131753</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14.75666892413787</v>
+        <v>34.20636629377537</v>
       </c>
       <c r="N11" t="n">
-        <v>162.400918444016</v>
+        <v>38.6261559713452</v>
       </c>
       <c r="O11" t="n">
-        <v>49.41024725235332</v>
+        <v>5.632326382161524</v>
       </c>
       <c r="P11" t="n">
-        <v>19.50933137279482</v>
+        <v>39.17976952743097</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.2491463640434</v>
+        <v>6.810461584715997</v>
       </c>
       <c r="R11" t="n">
-        <v>22.99585650779644</v>
+        <v>194.3351897277578</v>
       </c>
       <c r="S11" t="n">
-        <v>100.7134008557639</v>
+        <v>45.01695103382949</v>
       </c>
       <c r="T11" t="n">
-        <v>88.21166818348684</v>
+        <v>50.83043836898185</v>
       </c>
       <c r="U11" t="n">
-        <v>43.26053742811087</v>
+        <v>75.64147695139236</v>
       </c>
       <c r="V11" t="n">
-        <v>21.80112120236437</v>
+        <v>73.70794819403851</v>
       </c>
       <c r="W11" t="n">
-        <v>47.71634801650211</v>
+        <v>102.6407274668921</v>
       </c>
       <c r="X11" t="n">
-        <v>14.08255804650872</v>
+        <v>46.0057915108652</v>
       </c>
       <c r="Y11" t="n">
-        <v>40.48653151312439</v>
+        <v>119.3091888277884</v>
       </c>
       <c r="Z11" t="n">
-        <v>74.34401409557233</v>
+        <v>94.64537783693281</v>
       </c>
       <c r="AA11" t="n">
-        <v>65.92698261943315</v>
+        <v>21.83143450079531</v>
       </c>
       <c r="AB11" t="n">
-        <v>24.21405058508841</v>
+        <v>24.13415298253538</v>
       </c>
       <c r="AC11" t="n">
-        <v>36.68346704257866</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>44.69042031277148</v>
+        <v>37.80728235398409</v>
       </c>
       <c r="AE11" t="n">
-        <v>25.1178554109617</v>
+        <v>120.8391938625902</v>
       </c>
       <c r="AF11" t="n">
-        <v>17.19640776229097</v>
+        <v>49.36467341108637</v>
       </c>
       <c r="AG11" t="n">
-        <v>34.56606681192938</v>
+        <v>18.62277241309393</v>
       </c>
       <c r="AH11" t="n">
-        <v>25.38964930102532</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>80.70980837575806</v>
+        <v>24.39272569982477</v>
       </c>
       <c r="AJ11" t="n">
-        <v>35.68048588725542</v>
+        <v>16.0749070281073</v>
       </c>
       <c r="AK11" t="n">
-        <v>27.62834646735884</v>
+        <v>75.41709904243433</v>
       </c>
       <c r="AL11" t="n">
-        <v>28.94168926602192</v>
+        <v>75.00472111854535</v>
       </c>
       <c r="AM11" t="n">
-        <v>42.80546940356047</v>
+        <v>26.82493391890629</v>
       </c>
       <c r="AN11" t="n">
-        <v>27.34809507481179</v>
+        <v>37.22946987990318</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>20.91849629429927</v>
       </c>
       <c r="AP11" t="n">
-        <v>24.2560365983605</v>
+        <v>21.28625780259875</v>
       </c>
       <c r="AQ11" t="n">
-        <v>13.92634485831339</v>
+        <v>17.69469300349887</v>
       </c>
       <c r="AR11" t="n">
-        <v>19.64748996729863</v>
+        <v>29.02619971522582</v>
       </c>
       <c r="AS11" t="n">
-        <v>8.316006575709212</v>
+        <v>22.07269447659756</v>
       </c>
       <c r="AT11" t="n">
-        <v>41.97207415704084</v>
+        <v>33.30761024618306</v>
       </c>
       <c r="AU11" t="n">
-        <v>18.69817972453028</v>
+        <v>43.1584236225289</v>
       </c>
       <c r="AV11" t="n">
-        <v>34.85375179281808</v>
+        <v>44.6504380781509</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.932537466489201</v>
+        <v>14.95912112772569</v>
       </c>
       <c r="AX11" t="n">
-        <v>21.73499416488125</v>
+        <v>29.58021696421157</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>4.651540794960338</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>8.799260353967899</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6.422967062067199</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.653803738597954</v>
       </c>
       <c r="G12" t="n">
-        <v>4.029253331741682</v>
+        <v>3.534379142946234</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.883049809875512</v>
       </c>
       <c r="I12" t="n">
-        <v>11.07591748275784</v>
+        <v>40.02744719801946</v>
       </c>
       <c r="J12" t="n">
-        <v>23.14581901551864</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>17.80552176067301</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>53.36083438296141</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>81.04754440381714</v>
+        <v>38.37437935532027</v>
       </c>
       <c r="N12" t="n">
-        <v>16.75299360053166</v>
+        <v>14.16622515387762</v>
       </c>
       <c r="O12" t="n">
-        <v>24.74321430028029</v>
+        <v>25.4946424957845</v>
       </c>
       <c r="P12" t="n">
-        <v>13.32517161364225</v>
+        <v>22.85996778569514</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.038921220228177</v>
+        <v>22.55529146682408</v>
       </c>
       <c r="R12" t="n">
-        <v>25.2455287405347</v>
+        <v>22.44710504573853</v>
       </c>
       <c r="S12" t="n">
-        <v>37.41389331781886</v>
+        <v>20.19587240706034</v>
       </c>
       <c r="T12" t="n">
-        <v>37.41327930616347</v>
+        <v>2.861279943631946</v>
       </c>
       <c r="U12" t="n">
-        <v>3.685769021231025</v>
+        <v>67.40649215929008</v>
       </c>
       <c r="V12" t="n">
-        <v>28.63816583778215</v>
+        <v>22.50940129749782</v>
       </c>
       <c r="W12" t="n">
-        <v>21.25965891632002</v>
+        <v>2.947361356323006</v>
       </c>
       <c r="X12" t="n">
-        <v>96.33195482274263</v>
+        <v>34.87268420187272</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.847344659951416</v>
+        <v>36.26119500833964</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.4423498270224</v>
+        <v>12.13577466005384</v>
       </c>
       <c r="AA12" t="n">
-        <v>18.19315507632319</v>
+        <v>17.78471638886415</v>
       </c>
       <c r="AB12" t="n">
-        <v>34.37440122150762</v>
+        <v>0.7940221065845454</v>
       </c>
       <c r="AC12" t="n">
-        <v>24.093897154771</v>
+        <v>13.07857090910727</v>
       </c>
       <c r="AD12" t="n">
-        <v>19.29864656342912</v>
+        <v>19.44388159164389</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.0473155075871</v>
+        <v>8.381496342848379</v>
       </c>
       <c r="AF12" t="n">
-        <v>13.69008876969997</v>
+        <v>11.26534113784265</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.493245886837789</v>
+        <v>29.53166903727568</v>
       </c>
       <c r="AH12" t="n">
-        <v>9.134942800015549</v>
+        <v>15.16565553255288</v>
       </c>
       <c r="AI12" t="n">
-        <v>5.550740995143688</v>
+        <v>19.98124219732885</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.326255431546765</v>
+        <v>23.06955954151349</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.368615558498695</v>
+        <v>14.41040810013585</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.971026878625329</v>
+        <v>22.5276259089898</v>
       </c>
       <c r="AM12" t="n">
-        <v>6.704237637841503</v>
+        <v>2.128963632575664</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.461878734126955</v>
+        <v>3.657789903603837</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.05958544307167</v>
+        <v>2.117264648394867</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.467935029188487</v>
+        <v>1.735347332271564</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.835460863854592</v>
+        <v>0.6053076343352055</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.33424631101071</v>
+        <v>1.371569045821162</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.896969046826321</v>
+        <v>3.353161031103911</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.910705799142013</v>
+        <v>7.503472641975057</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.971722026212955</v>
+        <v>1.084554876344814</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.3380101492213462</v>
+        <v>5.460042343594399</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.8316868234246685</v>
+        <v>6.890622977302395</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.6982181942135404</v>
+        <v>0.2654168817502214</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.237020301393477</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>35.08036118119011</v>
+        <v>26.25104241885937</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.87320388348267</v>
       </c>
       <c r="H13" t="n">
-        <v>19.1779473358681</v>
+        <v>6.940890811579642</v>
       </c>
       <c r="I13" t="n">
-        <v>36.81096801537318</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.32982173593414</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>36.43834883611144</v>
+        <v>26.9176139335798</v>
       </c>
       <c r="L13" t="n">
-        <v>24.90134038158686</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>13.9186292673097</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>10.01040072353956</v>
       </c>
       <c r="O13" t="n">
-        <v>73.71098133509982</v>
+        <v>2.787502817347589</v>
       </c>
       <c r="P13" t="n">
-        <v>71.47033545081327</v>
+        <v>49.16894944597159</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.88014273946519</v>
+        <v>25.54563227483414</v>
       </c>
       <c r="R13" t="n">
-        <v>56.839133749634</v>
+        <v>3.726028885530458</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>40.87873657292305</v>
       </c>
       <c r="T13" t="n">
-        <v>10.52563065452413</v>
+        <v>96.99559883063191</v>
       </c>
       <c r="U13" t="n">
-        <v>38.03818814464878</v>
+        <v>46.98367512433147</v>
       </c>
       <c r="V13" t="n">
-        <v>38.45763710249408</v>
+        <v>7.132526390623694</v>
       </c>
       <c r="W13" t="n">
-        <v>35.80902696059011</v>
+        <v>37.57067944959527</v>
       </c>
       <c r="X13" t="n">
-        <v>26.85451915903394</v>
+        <v>33.57897235727922</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.71084796020902</v>
+        <v>12.35132826330643</v>
       </c>
       <c r="Z13" t="n">
-        <v>13.12939654727155</v>
+        <v>88.97040140067044</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.13062240570311</v>
+        <v>1.124666604562084</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.81592414170094</v>
+        <v>4.826408155625206</v>
       </c>
       <c r="AC13" t="n">
-        <v>29.56270263782803</v>
+        <v>22.93981910950655</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.118591750953445</v>
+        <v>11.16013195013346</v>
       </c>
       <c r="AE13" t="n">
-        <v>27.41722674110445</v>
+        <v>35.64825247495685</v>
       </c>
       <c r="AF13" t="n">
-        <v>30.95588567046322</v>
+        <v>9.638877005464201</v>
       </c>
       <c r="AG13" t="n">
-        <v>17.78678029728303</v>
+        <v>10.36705755804561</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.760536973747168</v>
+        <v>21.0578033706417</v>
       </c>
       <c r="AI13" t="n">
-        <v>10.66845744602946</v>
+        <v>28.42469312969928</v>
       </c>
       <c r="AJ13" t="n">
-        <v>3.702623495756027</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>7.318770397140584</v>
+        <v>5.672537827540435</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.353063942626708</v>
       </c>
       <c r="AM13" t="n">
-        <v>19.89291323682791</v>
+        <v>6.374608095725165</v>
       </c>
       <c r="AN13" t="n">
-        <v>27.2247774434887</v>
+        <v>20.53151893626947</v>
       </c>
       <c r="AO13" t="n">
-        <v>75.77237480030637</v>
+        <v>5.602584724288509</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.716332574699279</v>
+        <v>11.15027659884392</v>
       </c>
       <c r="AQ13" t="n">
-        <v>5.609639781726481</v>
+        <v>12.71632927414134</v>
       </c>
       <c r="AR13" t="n">
-        <v>9.13666745101893</v>
+        <v>15.39452196303008</v>
       </c>
       <c r="AS13" t="n">
-        <v>6.089388981036779</v>
+        <v>10.84936791689661</v>
       </c>
       <c r="AT13" t="n">
-        <v>7.826383302124556</v>
+        <v>1.740868025099532</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>80.03374354880221</v>
       </c>
       <c r="AV13" t="n">
-        <v>54.39803677603788</v>
+        <v>0.880536687561766</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.622290226654465</v>
+        <v>9.652673378072199</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.680662395468719</v>
+        <v>13.22631939468925</v>
       </c>
     </row>
     <row r="14">
@@ -2523,142 +2523,142 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>144.0417213297807</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>97.31994823876477</v>
       </c>
       <c r="G14" t="n">
-        <v>53.02684774951403</v>
+        <v>25.1121180494542</v>
       </c>
       <c r="H14" t="n">
-        <v>8.211813533456812</v>
+        <v>27.95488276910555</v>
       </c>
       <c r="I14" t="n">
-        <v>44.3475677219233</v>
+        <v>14.95594135111058</v>
       </c>
       <c r="J14" t="n">
-        <v>46.62659848353781</v>
+        <v>11.76798907617312</v>
       </c>
       <c r="K14" t="n">
-        <v>112.5312954533594</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>95.33269337121392</v>
+        <v>71.70464432833721</v>
       </c>
       <c r="M14" t="n">
-        <v>138.4535731242217</v>
+        <v>63.95469369568865</v>
       </c>
       <c r="N14" t="n">
-        <v>38.75455979462004</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>130.83506537124</v>
+        <v>90.07980459494262</v>
       </c>
       <c r="P14" t="n">
-        <v>40.86415218628819</v>
+        <v>8.621608793815703</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.33622821239919</v>
+        <v>53.62168583729496</v>
       </c>
       <c r="R14" t="n">
-        <v>14.95901084309728</v>
+        <v>68.20189840408084</v>
       </c>
       <c r="S14" t="n">
-        <v>53.43363190917899</v>
+        <v>121.29655807627</v>
       </c>
       <c r="T14" t="n">
-        <v>43.09858505471699</v>
+        <v>86.10571438502815</v>
       </c>
       <c r="U14" t="n">
-        <v>69.47145256650501</v>
+        <v>23.88727205282695</v>
       </c>
       <c r="V14" t="n">
-        <v>59.2126970064142</v>
+        <v>55.85298383837812</v>
       </c>
       <c r="W14" t="n">
-        <v>29.41173503770712</v>
+        <v>18.55815713403941</v>
       </c>
       <c r="X14" t="n">
-        <v>22.65961874586533</v>
+        <v>156.9153327169586</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.4981702361847</v>
+        <v>76.93181174749149</v>
       </c>
       <c r="Z14" t="n">
-        <v>69.63413599604519</v>
+        <v>47.66799262817518</v>
       </c>
       <c r="AA14" t="n">
-        <v>82.28582760826853</v>
+        <v>66.20051139636038</v>
       </c>
       <c r="AB14" t="n">
-        <v>99.78285174573227</v>
+        <v>111.9934670631779</v>
       </c>
       <c r="AC14" t="n">
-        <v>123.958752838717</v>
+        <v>143.4389831356324</v>
       </c>
       <c r="AD14" t="n">
-        <v>41.22048066039679</v>
+        <v>105.073800783144</v>
       </c>
       <c r="AE14" t="n">
-        <v>76.01661523720352</v>
+        <v>39.48066843081553</v>
       </c>
       <c r="AF14" t="n">
-        <v>94.51300971531575</v>
+        <v>32.77996475011604</v>
       </c>
       <c r="AG14" t="n">
-        <v>121.5671185977694</v>
+        <v>92.27929859108424</v>
       </c>
       <c r="AH14" t="n">
-        <v>115.5839085396171</v>
+        <v>169.9166429343687</v>
       </c>
       <c r="AI14" t="n">
-        <v>23.40980988723207</v>
+        <v>112.8023520123252</v>
       </c>
       <c r="AJ14" t="n">
-        <v>124.5179550797554</v>
+        <v>124.2768921300266</v>
       </c>
       <c r="AK14" t="n">
-        <v>149.5981558781887</v>
+        <v>85.21772584950115</v>
       </c>
       <c r="AL14" t="n">
-        <v>42.32940953750346</v>
+        <v>263.9987599258107</v>
       </c>
       <c r="AM14" t="n">
-        <v>33.26426714799463</v>
+        <v>25.3440269613744</v>
       </c>
       <c r="AN14" t="n">
-        <v>29.03501555661271</v>
+        <v>32.69335892014657</v>
       </c>
       <c r="AO14" t="n">
-        <v>26.35756808576448</v>
+        <v>32.71488574326568</v>
       </c>
       <c r="AP14" t="n">
-        <v>31.53778098814821</v>
+        <v>26.98168775722226</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24.0863294951346</v>
+        <v>18.28943460364873</v>
       </c>
       <c r="AR14" t="n">
-        <v>14.86013281844477</v>
+        <v>30.89996136229274</v>
       </c>
       <c r="AS14" t="n">
-        <v>21.83027396716468</v>
+        <v>18.26580774559404</v>
       </c>
       <c r="AT14" t="n">
-        <v>24.43338125471771</v>
+        <v>23.4618300596509</v>
       </c>
       <c r="AU14" t="n">
-        <v>19.17701375840809</v>
+        <v>15.19860321427187</v>
       </c>
       <c r="AV14" t="n">
-        <v>21.03586171928515</v>
+        <v>8.564567262885504</v>
       </c>
       <c r="AW14" t="n">
-        <v>28.10948521997293</v>
+        <v>42.4052275796173</v>
       </c>
       <c r="AX14" t="n">
-        <v>11.23102764233461</v>
+        <v>20.37349709518355</v>
       </c>
     </row>
     <row r="15">
@@ -2669,148 +2669,148 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5.999370601748837</v>
+        <v>3.866956857460727</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.993760811486276</v>
       </c>
       <c r="E15" t="n">
-        <v>3.973632622443492</v>
+        <v>3.727229493386969</v>
       </c>
       <c r="F15" t="n">
-        <v>2.279518956869256</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6305763146022836</v>
+        <v>3.650241852953414</v>
       </c>
       <c r="H15" t="n">
-        <v>2.297610004454118</v>
+        <v>2.035403299927401</v>
       </c>
       <c r="I15" t="n">
-        <v>2.687798245662485</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.619929178930678</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>4.776287189145158</v>
+        <v>8.308107976905076</v>
       </c>
       <c r="L15" t="n">
-        <v>6.46747435274815</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2.73978984244031</v>
+        <v>3.105374888457308</v>
       </c>
       <c r="N15" t="n">
-        <v>3.726105847595034</v>
+        <v>3.847869644558663</v>
       </c>
       <c r="O15" t="n">
-        <v>7.401227113107979</v>
+        <v>1.516889594541814</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8748903657316651</v>
+        <v>3.24815102241199</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.911753005842796</v>
+        <v>7.097576465752515</v>
       </c>
       <c r="R15" t="n">
-        <v>4.703133554107295</v>
+        <v>5.576277340860333</v>
       </c>
       <c r="S15" t="n">
-        <v>3.568986735431293</v>
+        <v>3.028135066274118</v>
       </c>
       <c r="T15" t="n">
-        <v>2.949917683231976</v>
+        <v>5.287248283361214</v>
       </c>
       <c r="U15" t="n">
-        <v>4.922755340296946</v>
+        <v>1.45634376577588</v>
       </c>
       <c r="V15" t="n">
-        <v>8.339506398243524</v>
+        <v>6.067970312866411</v>
       </c>
       <c r="W15" t="n">
-        <v>4.417092025636908</v>
+        <v>0.9085236641973953</v>
       </c>
       <c r="X15" t="n">
-        <v>4.65858267988762</v>
+        <v>2.725013383324143</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.546683868148076</v>
+        <v>3.435764807298594</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.003364435751074</v>
+        <v>5.211625515999082</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.342937908199989</v>
+        <v>3.471077268342624</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.961269116019825</v>
+        <v>2.063797621607877</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.018482097193594</v>
+        <v>2.395627912491495</v>
       </c>
       <c r="AD15" t="n">
-        <v>4.193682863626504</v>
+        <v>2.994743531294794</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.087140522174752</v>
+        <v>8.424188960299047</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.244304707518132</v>
+        <v>3.372409362343195</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.161719816209549</v>
+        <v>8.622468751882399</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.756003493287299</v>
+        <v>4.962329900781967</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.9796837871906955</v>
+        <v>7.954459743520146</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.593289399497911</v>
+        <v>5.44321935863865</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.158973918956652</v>
+        <v>6.167006934138946</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.920599373173129</v>
+        <v>10.7822532871904</v>
       </c>
       <c r="AM15" t="n">
-        <v>4.851165126502717</v>
+        <v>5.32933660781599</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.833382943526357</v>
+        <v>3.665503943293582</v>
       </c>
       <c r="AO15" t="n">
-        <v>3.26538684671105</v>
+        <v>2.824952011182584</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.626254767055408</v>
+        <v>4.800369484160704</v>
       </c>
       <c r="AQ15" t="n">
-        <v>3.437004690894607</v>
+        <v>0.1035152203607324</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.8142196139186193</v>
+        <v>3.492329635879354</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.111083118027055</v>
+        <v>3.690609718929469</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.726198820241817</v>
+        <v>3.433216154829472</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.156946652196293</v>
+        <v>4.985587525054751</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.493266162754212</v>
+        <v>3.109602513258805</v>
       </c>
       <c r="AW15" t="n">
-        <v>2.079538224636197</v>
+        <v>2.133394569045925</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.764900470098261</v>
+        <v>0.2834371763251282</v>
       </c>
     </row>
     <row r="16">
@@ -2821,7 +2821,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>10.19019213287002</v>
+        <v>72.27219209344941</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2830,139 +2830,139 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6.506341091716518</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.63643339874668</v>
       </c>
       <c r="H16" t="n">
-        <v>17.95893304246263</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>25.77069262399157</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.16578207919282</v>
+        <v>23.74732142050191</v>
       </c>
       <c r="L16" t="n">
-        <v>23.04846743866699</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>137.4697784131879</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>61.92875880522197</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>40.07190981788477</v>
+        <v>54.24046299580787</v>
       </c>
       <c r="P16" t="n">
-        <v>81.77957089349593</v>
+        <v>75.58634312141501</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.26081506199627</v>
+        <v>37.96651831551488</v>
       </c>
       <c r="R16" t="n">
-        <v>30.39582540678656</v>
+        <v>69.37977453117175</v>
       </c>
       <c r="S16" t="n">
-        <v>31.25169844986462</v>
+        <v>45.57671168388565</v>
       </c>
       <c r="T16" t="n">
-        <v>78.81284424009029</v>
+        <v>58.28872697259602</v>
       </c>
       <c r="U16" t="n">
-        <v>25.21629701748576</v>
+        <v>37.62978503448828</v>
       </c>
       <c r="V16" t="n">
-        <v>64.93716418011621</v>
+        <v>27.2087730329804</v>
       </c>
       <c r="W16" t="n">
-        <v>27.73172575770713</v>
+        <v>59.39239866662717</v>
       </c>
       <c r="X16" t="n">
-        <v>53.35433923505718</v>
+        <v>83.84202068786706</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.3725500746814</v>
+        <v>41.19460817647014</v>
       </c>
       <c r="Z16" t="n">
-        <v>43.60216303076702</v>
+        <v>122.3571538579644</v>
       </c>
       <c r="AA16" t="n">
-        <v>79.47576412235377</v>
+        <v>61.17419563147254</v>
       </c>
       <c r="AB16" t="n">
-        <v>104.4850163826929</v>
+        <v>42.64908084810936</v>
       </c>
       <c r="AC16" t="n">
-        <v>31.59063225008206</v>
+        <v>119.7438789080089</v>
       </c>
       <c r="AD16" t="n">
-        <v>57.5211165280929</v>
+        <v>106.6338773210112</v>
       </c>
       <c r="AE16" t="n">
-        <v>53.96295042096874</v>
+        <v>96.81969770862632</v>
       </c>
       <c r="AF16" t="n">
-        <v>110.0530942492684</v>
+        <v>116.4712534189933</v>
       </c>
       <c r="AG16" t="n">
-        <v>45.76776719060895</v>
+        <v>13.87646955970911</v>
       </c>
       <c r="AH16" t="n">
-        <v>48.22910485221863</v>
+        <v>32.0428761703248</v>
       </c>
       <c r="AI16" t="n">
-        <v>63.56241131651461</v>
+        <v>255.4575079187157</v>
       </c>
       <c r="AJ16" t="n">
-        <v>157.7997124656314</v>
+        <v>49.95168887445488</v>
       </c>
       <c r="AK16" t="n">
-        <v>37.03778982987973</v>
+        <v>30.7492945536666</v>
       </c>
       <c r="AL16" t="n">
-        <v>69.37326212315061</v>
+        <v>39.92978377854956</v>
       </c>
       <c r="AM16" t="n">
-        <v>76.75733622984502</v>
+        <v>10.22820862424395</v>
       </c>
       <c r="AN16" t="n">
-        <v>20.21865823603845</v>
+        <v>6.432559653379223</v>
       </c>
       <c r="AO16" t="n">
-        <v>36.03564897919182</v>
+        <v>15.03795362449836</v>
       </c>
       <c r="AP16" t="n">
-        <v>13.64099731796558</v>
+        <v>16.43317369520903</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18.69951906910132</v>
+        <v>20.9552627804033</v>
       </c>
       <c r="AR16" t="n">
-        <v>20.77454290241442</v>
+        <v>6.256560283305864</v>
       </c>
       <c r="AS16" t="n">
-        <v>25.30373610841912</v>
+        <v>11.68950006746331</v>
       </c>
       <c r="AT16" t="n">
-        <v>23.36928484166601</v>
+        <v>16.53671254884415</v>
       </c>
       <c r="AU16" t="n">
-        <v>10.08685473991201</v>
+        <v>11.66514406813568</v>
       </c>
       <c r="AV16" t="n">
-        <v>11.53632573925329</v>
+        <v>6.154048051584659</v>
       </c>
       <c r="AW16" t="n">
-        <v>18.07230083995448</v>
+        <v>24.71161326582738</v>
       </c>
       <c r="AX16" t="n">
-        <v>21.70444517132614</v>
+        <v>31.43388008201252</v>
       </c>
     </row>
     <row r="17">
@@ -2973,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>46.99379231862402</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2982,139 +2982,139 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>12.76924308824715</v>
+        <v>38.31650315457566</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>32.65951924600587</v>
+        <v>4.408800918550646</v>
       </c>
       <c r="I17" t="n">
-        <v>29.89940901675465</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>14.71049979862594</v>
       </c>
       <c r="K17" t="n">
-        <v>11.63631231730143</v>
+        <v>38.55942498881196</v>
       </c>
       <c r="L17" t="n">
-        <v>68.7114929952383</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>33.40662328739096</v>
+        <v>77.3938290064259</v>
       </c>
       <c r="N17" t="n">
-        <v>50.44670726663623</v>
+        <v>10.79451898128278</v>
       </c>
       <c r="O17" t="n">
-        <v>61.78481666281775</v>
+        <v>215.2550717093665</v>
       </c>
       <c r="P17" t="n">
-        <v>25.56976730724258</v>
+        <v>21.01420864404329</v>
       </c>
       <c r="Q17" t="n">
-        <v>172.5011560597206</v>
+        <v>26.21353874413931</v>
       </c>
       <c r="R17" t="n">
-        <v>27.85346417471648</v>
+        <v>30.574761257163</v>
       </c>
       <c r="S17" t="n">
-        <v>40.84114298070517</v>
+        <v>95.08806873484869</v>
       </c>
       <c r="T17" t="n">
-        <v>44.06812284025449</v>
+        <v>40.55147650330758</v>
       </c>
       <c r="U17" t="n">
-        <v>105.2444702345958</v>
+        <v>41.86815981654718</v>
       </c>
       <c r="V17" t="n">
-        <v>26.60779103708579</v>
+        <v>18.38258215657334</v>
       </c>
       <c r="W17" t="n">
-        <v>54.82664887609807</v>
+        <v>305.6539569545488</v>
       </c>
       <c r="X17" t="n">
-        <v>73.06072219184561</v>
+        <v>82.45597832287959</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.95445545876204</v>
+        <v>22.90529896232291</v>
       </c>
       <c r="Z17" t="n">
-        <v>12.09489356776646</v>
+        <v>43.07029513024374</v>
       </c>
       <c r="AA17" t="n">
-        <v>28.98822957914469</v>
+        <v>30.7024722609859</v>
       </c>
       <c r="AB17" t="n">
-        <v>60.28640945016001</v>
+        <v>47.23118782223935</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.835534945178217</v>
+        <v>60.0515941514748</v>
       </c>
       <c r="AD17" t="n">
-        <v>21.01938252147743</v>
+        <v>39.39257453452271</v>
       </c>
       <c r="AE17" t="n">
-        <v>151.3692913386755</v>
+        <v>9.200443524757137</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>53.31892178222442</v>
       </c>
       <c r="AG17" t="n">
-        <v>32.16160893237451</v>
+        <v>9.847073586139574</v>
       </c>
       <c r="AH17" t="n">
-        <v>27.86326754198214</v>
+        <v>47.79055719630963</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.304800068479732</v>
+        <v>12.44038294066731</v>
       </c>
       <c r="AJ17" t="n">
-        <v>49.25193699075471</v>
+        <v>29.88891777822545</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>11.73949535055121</v>
       </c>
       <c r="AL17" t="n">
-        <v>10.73329874015736</v>
+        <v>23.56588225494282</v>
       </c>
       <c r="AM17" t="n">
-        <v>46.95058630785778</v>
+        <v>25.01886685902627</v>
       </c>
       <c r="AN17" t="n">
-        <v>31.97332813993503</v>
+        <v>33.14343811108575</v>
       </c>
       <c r="AO17" t="n">
-        <v>27.88189897689645</v>
+        <v>33.1866571971555</v>
       </c>
       <c r="AP17" t="n">
-        <v>18.244421614686</v>
+        <v>25.48086090660244</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.527148119934958</v>
+        <v>18.93345012261414</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.910185029492897</v>
+        <v>23.37315158590051</v>
       </c>
       <c r="AS17" t="n">
-        <v>14.65045053453071</v>
+        <v>32.39833399735576</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>5.310737855758177</v>
       </c>
       <c r="AU17" t="n">
-        <v>26.37976029049498</v>
+        <v>22.78197274433519</v>
       </c>
       <c r="AV17" t="n">
-        <v>9.526920223222026</v>
+        <v>34.89258822500381</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.799930172655454</v>
+        <v>27.72108709873893</v>
       </c>
       <c r="AX17" t="n">
-        <v>22.25380128768794</v>
+        <v>28.26344704114862</v>
       </c>
     </row>
     <row r="18">
@@ -3128,145 +3128,145 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.824806180222025</v>
+        <v>54.55693426667137</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>16.03472504706685</v>
       </c>
       <c r="F18" t="n">
-        <v>2.569907487771681</v>
+        <v>39.37449762830854</v>
       </c>
       <c r="G18" t="n">
-        <v>3.190622409355559</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>16.72003454103669</v>
+        <v>7.326763748661575</v>
       </c>
       <c r="I18" t="n">
-        <v>20.25551423180683</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11.819272453618</v>
+        <v>5.207361637577616</v>
       </c>
       <c r="K18" t="n">
-        <v>67.56109748656344</v>
+        <v>36.53700286303146</v>
       </c>
       <c r="L18" t="n">
-        <v>16.28523057697173</v>
+        <v>61.81586359029866</v>
       </c>
       <c r="M18" t="n">
-        <v>13.12869484589703</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>63.70388226819073</v>
+        <v>10.66883236777005</v>
       </c>
       <c r="O18" t="n">
-        <v>31.35224434200351</v>
+        <v>22.5638930230357</v>
       </c>
       <c r="P18" t="n">
-        <v>58.19599664969586</v>
+        <v>19.4145559830052</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.49842490523826</v>
+        <v>33.39620578598396</v>
       </c>
       <c r="R18" t="n">
-        <v>34.95015281218923</v>
+        <v>1.642034162825118</v>
       </c>
       <c r="S18" t="n">
-        <v>58.31488618054523</v>
+        <v>17.54566735940511</v>
       </c>
       <c r="T18" t="n">
-        <v>39.39248749261331</v>
+        <v>34.85922969746222</v>
       </c>
       <c r="U18" t="n">
-        <v>23.04750590596106</v>
+        <v>64.3940565115609</v>
       </c>
       <c r="V18" t="n">
-        <v>28.70406639871154</v>
+        <v>26.3570672447409</v>
       </c>
       <c r="W18" t="n">
-        <v>27.40255511144658</v>
+        <v>25.89364236931231</v>
       </c>
       <c r="X18" t="n">
-        <v>21.96725739961768</v>
+        <v>43.14570269407418</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.53861427072706</v>
+        <v>15.31632368535707</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.95693808730524</v>
+        <v>42.5105439951068</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.672923924970649</v>
+        <v>9.618340356744824</v>
       </c>
       <c r="AB18" t="n">
-        <v>19.13246248124495</v>
+        <v>5.972106912793345</v>
       </c>
       <c r="AC18" t="n">
-        <v>14.82524222032803</v>
+        <v>13.77326871858977</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.34793453424865</v>
+        <v>16.83515573792534</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.079593936171218</v>
+        <v>13.67138653343136</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.50945672627838</v>
+        <v>20.45642590569165</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.37070605244639</v>
+        <v>28.28335674393467</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.135023864840362</v>
+        <v>10.10590359605021</v>
       </c>
       <c r="AI18" t="n">
-        <v>4.285464694259492</v>
+        <v>30.73054381857612</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3.854892612465346</v>
+        <v>17.2762770706691</v>
       </c>
       <c r="AK18" t="n">
-        <v>22.82566234705993</v>
+        <v>35.34714351939535</v>
       </c>
       <c r="AL18" t="n">
-        <v>4.616832416573137</v>
+        <v>61.90434083764266</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.607731039381701</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.601087039575673</v>
+        <v>4.816768523842279</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.992898987235445</v>
+        <v>1.060803779438001</v>
       </c>
       <c r="AP18" t="n">
-        <v>6.150338406282395</v>
+        <v>5.22185286518355</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.919204691846328</v>
+        <v>3.396995964374831</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.798417632662189</v>
+        <v>3.010576011990469</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.804471522079465</v>
+        <v>1.55027251787096</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.738686986124526</v>
+        <v>2.096085862802968</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>6.94858213441244</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.249508818094607</v>
+        <v>4.987804147666</v>
       </c>
       <c r="AW18" t="n">
-        <v>0</v>
+        <v>0.7479205391687938</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.3971055784421317</v>
+        <v>2.688413447388965</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>13.99497363570916</v>
+        <v>31.13445917706734</v>
       </c>
       <c r="D19" t="n">
-        <v>18.69173878464211</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.78595623016185</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.788902255234239</v>
+        <v>19.71335804376613</v>
       </c>
       <c r="G19" t="n">
-        <v>19.61821102264287</v>
+        <v>27.58511611820319</v>
       </c>
       <c r="H19" t="n">
-        <v>8.852642909649303</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5.336022277763797</v>
+        <v>23.94050655963456</v>
       </c>
       <c r="J19" t="n">
-        <v>2.276037729166374</v>
+        <v>80.23417105275416</v>
       </c>
       <c r="K19" t="n">
-        <v>24.87387236955469</v>
+        <v>9.96145672549965</v>
       </c>
       <c r="L19" t="n">
-        <v>13.81766861300296</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.799417481360814</v>
       </c>
       <c r="N19" t="n">
-        <v>46.90969169859047</v>
+        <v>12.80482201991784</v>
       </c>
       <c r="O19" t="n">
-        <v>23.75233710367998</v>
+        <v>1.686009467381833</v>
       </c>
       <c r="P19" t="n">
-        <v>9.92383666193524</v>
+        <v>29.74150396875689</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.55004745063125</v>
+        <v>40.68177536259579</v>
       </c>
       <c r="R19" t="n">
-        <v>38.26604668323482</v>
+        <v>6.228954238526305</v>
       </c>
       <c r="S19" t="n">
-        <v>6.378368855104657</v>
+        <v>26.42384784590011</v>
       </c>
       <c r="T19" t="n">
-        <v>38.4986320226153</v>
+        <v>27.02126193615118</v>
       </c>
       <c r="U19" t="n">
-        <v>49.10239659027008</v>
+        <v>12.02414653725226</v>
       </c>
       <c r="V19" t="n">
-        <v>12.92523252109593</v>
+        <v>11.7408194794492</v>
       </c>
       <c r="W19" t="n">
-        <v>13.28531535130562</v>
+        <v>63.10772103683471</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9.108067757621662</v>
       </c>
       <c r="Y19" t="n">
-        <v>57.76982517436547</v>
+        <v>1.740868847653681</v>
       </c>
       <c r="Z19" t="n">
-        <v>70.32506715716244</v>
+        <v>117.8272351719624</v>
       </c>
       <c r="AA19" t="n">
-        <v>14.37132701655333</v>
+        <v>11.74034568282139</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.931527725232563</v>
+        <v>18.76375846828275</v>
       </c>
       <c r="AC19" t="n">
-        <v>24.17733501097834</v>
+        <v>6.320816637746359</v>
       </c>
       <c r="AD19" t="n">
-        <v>7.485614324544896</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.320873411194422</v>
+        <v>28.55104681876761</v>
       </c>
       <c r="AF19" t="n">
-        <v>34.59309141578128</v>
+        <v>14.58490047377021</v>
       </c>
       <c r="AG19" t="n">
-        <v>6.820924856307728</v>
+        <v>6.398651402281769</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.459267536196573</v>
+        <v>7.148302692216095</v>
       </c>
       <c r="AI19" t="n">
-        <v>14.42564966957983</v>
+        <v>10.80506117111459</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14.5354119835656</v>
+        <v>9.036124202600487</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.69215683962365</v>
+        <v>0.5373658701978212</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>25.14567069328151</v>
       </c>
       <c r="AM19" t="n">
-        <v>6.547340665495534</v>
+        <v>24.76303754726102</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>6.331903265926739</v>
+        <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>17.80038409724674</v>
+        <v>1.880025163580389</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23.17168501515298</v>
+        <v>2.835497360409827</v>
       </c>
       <c r="AR19" t="n">
-        <v>8.406184167753118</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>7.072133828474232</v>
+        <v>25.9009842563306</v>
       </c>
       <c r="AT19" t="n">
-        <v>22.77453888320029</v>
+        <v>4.977530943248619</v>
       </c>
       <c r="AU19" t="n">
-        <v>4.989118753552654</v>
+        <v>2.820612845701518</v>
       </c>
       <c r="AV19" t="n">
-        <v>3.930531839439799</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>29.0060045161669</v>
+        <v>14.99406966883018</v>
       </c>
       <c r="AX19" t="n">
-        <v>2.969253381642511</v>
+        <v>5.421087056920663</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>18.4004882696508</v>
+        <v>7.310066634934804</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>84.19716147578443</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>17.75995212159165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>73.01157478994699</v>
+        <v>33.81429026896666</v>
       </c>
       <c r="I20" t="n">
-        <v>48.81735503901584</v>
+        <v>42.56222128232768</v>
       </c>
       <c r="J20" t="n">
-        <v>161.9329592777937</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>32.25870705574826</v>
+        <v>38.58248866608988</v>
       </c>
       <c r="L20" t="n">
-        <v>38.40043030312749</v>
+        <v>45.1135692664411</v>
       </c>
       <c r="M20" t="n">
-        <v>51.04737226518245</v>
+        <v>96.36227249215781</v>
       </c>
       <c r="N20" t="n">
-        <v>188.912516003807</v>
+        <v>40.78558692558877</v>
       </c>
       <c r="O20" t="n">
-        <v>66.71914362087134</v>
+        <v>39.47704978947018</v>
       </c>
       <c r="P20" t="n">
-        <v>24.85151105692412</v>
+        <v>31.76147034919407</v>
       </c>
       <c r="Q20" t="n">
-        <v>39.55128202173899</v>
+        <v>8.766757479224765</v>
       </c>
       <c r="R20" t="n">
-        <v>103.9296900496231</v>
+        <v>43.9859251684914</v>
       </c>
       <c r="S20" t="n">
-        <v>42.17092125925289</v>
+        <v>90.07727922809228</v>
       </c>
       <c r="T20" t="n">
-        <v>56.01912134446475</v>
+        <v>63.3724521584852</v>
       </c>
       <c r="U20" t="n">
-        <v>39.23088189229266</v>
+        <v>88.65338678835661</v>
       </c>
       <c r="V20" t="n">
-        <v>51.8151484441828</v>
+        <v>32.41553793898841</v>
       </c>
       <c r="W20" t="n">
-        <v>68.91255907962274</v>
+        <v>75.67978090570176</v>
       </c>
       <c r="X20" t="n">
-        <v>67.4516702086157</v>
+        <v>61.20166232232079</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.89572548811933</v>
+        <v>69.43549049895992</v>
       </c>
       <c r="Z20" t="n">
-        <v>67.7998511624877</v>
+        <v>23.4950407596787</v>
       </c>
       <c r="AA20" t="n">
-        <v>98.7890916244809</v>
+        <v>205.5768377463577</v>
       </c>
       <c r="AB20" t="n">
-        <v>43.53863416671882</v>
+        <v>105.9582442124337</v>
       </c>
       <c r="AC20" t="n">
-        <v>107.2723362325573</v>
+        <v>119.6546673411166</v>
       </c>
       <c r="AD20" t="n">
-        <v>111.3276323968106</v>
+        <v>121.1925933535427</v>
       </c>
       <c r="AE20" t="n">
-        <v>30.45725814202129</v>
+        <v>36.9961918442239</v>
       </c>
       <c r="AF20" t="n">
-        <v>109.1834453945346</v>
+        <v>65.74730201718157</v>
       </c>
       <c r="AG20" t="n">
-        <v>151.2069014927026</v>
+        <v>57.23786981023713</v>
       </c>
       <c r="AH20" t="n">
-        <v>136.1459415777986</v>
+        <v>111.5028731863565</v>
       </c>
       <c r="AI20" t="n">
-        <v>119.509072129498</v>
+        <v>99.9614896224976</v>
       </c>
       <c r="AJ20" t="n">
-        <v>127.3536472241442</v>
+        <v>133.1604334446153</v>
       </c>
       <c r="AK20" t="n">
-        <v>39.88626237897022</v>
+        <v>126.5840596411098</v>
       </c>
       <c r="AL20" t="n">
-        <v>103.1097160754645</v>
+        <v>86.04806312039852</v>
       </c>
       <c r="AM20" t="n">
-        <v>52.67301162183004</v>
+        <v>21.48012170923839</v>
       </c>
       <c r="AN20" t="n">
-        <v>28.03055455922583</v>
+        <v>17.40760761118876</v>
       </c>
       <c r="AO20" t="n">
-        <v>28.68450993734792</v>
+        <v>19.2681934714932</v>
       </c>
       <c r="AP20" t="n">
-        <v>17.91571085803482</v>
+        <v>31.13917780749013</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20.65119867523813</v>
+        <v>16.44341740283857</v>
       </c>
       <c r="AR20" t="n">
-        <v>18.92278033463161</v>
+        <v>21.21112321585571</v>
       </c>
       <c r="AS20" t="n">
-        <v>23.06251911450526</v>
+        <v>14.13420637313475</v>
       </c>
       <c r="AT20" t="n">
-        <v>18.19975320987539</v>
+        <v>16.15405258488337</v>
       </c>
       <c r="AU20" t="n">
-        <v>16.08747230374271</v>
+        <v>21.19097113011512</v>
       </c>
       <c r="AV20" t="n">
-        <v>8.228453096723293</v>
+        <v>17.50104257173902</v>
       </c>
       <c r="AW20" t="n">
-        <v>17.49115625942505</v>
+        <v>15.39766550371752</v>
       </c>
       <c r="AX20" t="n">
-        <v>16.11013531373338</v>
+        <v>17.0831486128941</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>5.799993659441387</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.043077738570501</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>4.304089897515119</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>6.796994801565456</v>
       </c>
       <c r="G21" t="n">
-        <v>5.235017459093337</v>
+        <v>2.255617978337423</v>
       </c>
       <c r="H21" t="n">
-        <v>3.480481825419263</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.551151409713538</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.267566684774288</v>
+        <v>2.948200754505688</v>
       </c>
       <c r="K21" t="n">
-        <v>7.221737696190913</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.158426283990635</v>
+        <v>3.991866559636432</v>
       </c>
       <c r="M21" t="n">
-        <v>5.329195267079489</v>
+        <v>2.606980102869721</v>
       </c>
       <c r="N21" t="n">
-        <v>2.820538937123708</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.401062198976619</v>
+        <v>2.46905568467443</v>
       </c>
       <c r="P21" t="n">
-        <v>10.60222777722216</v>
+        <v>2.991058609023299</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.222367022104853</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.874571976829012</v>
+        <v>4.346744262491216</v>
       </c>
       <c r="S21" t="n">
-        <v>3.708817308316225</v>
+        <v>4.660965044538691</v>
       </c>
       <c r="T21" t="n">
-        <v>4.388611574564309</v>
+        <v>3.825140412944137</v>
       </c>
       <c r="U21" t="n">
-        <v>3.346116867873815</v>
+        <v>9.039835140947533</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3.921774957624315</v>
       </c>
       <c r="W21" t="n">
-        <v>1.475396375010492</v>
+        <v>7.69445814349842</v>
       </c>
       <c r="X21" t="n">
-        <v>1.240585572068084</v>
+        <v>4.134486377498458</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.911308623156678</v>
+        <v>3.075494600288918</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.466576346430085</v>
+        <v>7.08124847591852</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.29610010027983</v>
+        <v>2.821798856899833</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.009040022692171</v>
+        <v>4.749786067141179</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.378631542583521</v>
+        <v>0.9050771385431469</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.603727428986922</v>
+        <v>5.453353503606621</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.557463841765477</v>
+        <v>4.09457817040111</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.087471318658538</v>
+        <v>8.054825984780907</v>
       </c>
       <c r="AG21" t="n">
-        <v>7.592205719991318</v>
+        <v>11.1637867924262</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.370296406703735</v>
+        <v>3.428768373906783</v>
       </c>
       <c r="AI21" t="n">
-        <v>3.047141784926708</v>
+        <v>4.737152363531183</v>
       </c>
       <c r="AJ21" t="n">
-        <v>6.844086919881373</v>
+        <v>2.376548081890743</v>
       </c>
       <c r="AK21" t="n">
-        <v>7.64667925307698</v>
+        <v>4.855931770837929</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.053744970272473</v>
+        <v>10.44288565555274</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.484332943313166</v>
+        <v>4.523417549941777</v>
       </c>
       <c r="AN21" t="n">
-        <v>4.19404525550597</v>
+        <v>4.117859693393591</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.804424318412807</v>
+        <v>3.544625262924288</v>
       </c>
       <c r="AP21" t="n">
-        <v>4.716591456940313</v>
+        <v>4.317106675756212</v>
       </c>
       <c r="AQ21" t="n">
-        <v>2.512095720490099</v>
+        <v>2.327294167590316</v>
       </c>
       <c r="AR21" t="n">
-        <v>4.464351125445871</v>
+        <v>2.897174356341236</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.901999476804935</v>
+        <v>3.203192133995771</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.961050781184781</v>
+        <v>2.955134143950897</v>
       </c>
       <c r="AU21" t="n">
-        <v>1.058675112130484</v>
+        <v>3.382967894992474</v>
       </c>
       <c r="AV21" t="n">
-        <v>4.049615921383387</v>
+        <v>4.827749796622173</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.366818943403533</v>
+        <v>1.828185231388488</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.8473366221501014</v>
+        <v>3.693233900804072</v>
       </c>
     </row>
     <row r="22">
@@ -3733,13 +3733,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>13.89808549862985</v>
+        <v>92.96423469124638</v>
       </c>
       <c r="D22" t="n">
-        <v>12.75752344208048</v>
+        <v>38.88112429788291</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.123056614292135</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -3748,133 +3748,133 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.078400401929364</v>
+        <v>34.0021455994132</v>
       </c>
       <c r="I22" t="n">
-        <v>7.262843511954244</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>495.1119902542221</v>
+        <v>52.09361533514561</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61732677860362</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>29.75742850770351</v>
+        <v>44.82820836155329</v>
       </c>
       <c r="M22" t="n">
-        <v>119.4154208747762</v>
+        <v>9.752234829672302</v>
       </c>
       <c r="N22" t="n">
-        <v>49.93622891217969</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>10.97828790532984</v>
+        <v>54.77397157256904</v>
       </c>
       <c r="P22" t="n">
-        <v>32.99501533706724</v>
+        <v>117.0320890525271</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.33176065558035</v>
+        <v>34.20786023427588</v>
       </c>
       <c r="R22" t="n">
-        <v>53.70204807877575</v>
+        <v>61.07907654050251</v>
       </c>
       <c r="S22" t="n">
-        <v>58.677379439105</v>
+        <v>55.85158019814027</v>
       </c>
       <c r="T22" t="n">
-        <v>23.84187667437292</v>
+        <v>67.16823502082761</v>
       </c>
       <c r="U22" t="n">
-        <v>41.00708338379565</v>
+        <v>65.10589854448271</v>
       </c>
       <c r="V22" t="n">
-        <v>74.84771983084876</v>
+        <v>54.43265294196621</v>
       </c>
       <c r="W22" t="n">
-        <v>45.22389878295877</v>
+        <v>63.3466525943208</v>
       </c>
       <c r="X22" t="n">
-        <v>49.25062035433136</v>
+        <v>35.29447674921965</v>
       </c>
       <c r="Y22" t="n">
-        <v>121.9391167568984</v>
+        <v>68.7305467990069</v>
       </c>
       <c r="Z22" t="n">
-        <v>164.8136915014929</v>
+        <v>31.01047282988544</v>
       </c>
       <c r="AA22" t="n">
-        <v>51.65596574021115</v>
+        <v>127.4567166086938</v>
       </c>
       <c r="AB22" t="n">
-        <v>50.60793232852733</v>
+        <v>51.90660710425988</v>
       </c>
       <c r="AC22" t="n">
-        <v>120.1861186770954</v>
+        <v>11.36840467609664</v>
       </c>
       <c r="AD22" t="n">
-        <v>91.20328344752478</v>
+        <v>85.00092605715651</v>
       </c>
       <c r="AE22" t="n">
-        <v>51.81029396434833</v>
+        <v>49.54745848707695</v>
       </c>
       <c r="AF22" t="n">
-        <v>102.5857933397304</v>
+        <v>47.43899046429426</v>
       </c>
       <c r="AG22" t="n">
-        <v>29.49036145478307</v>
+        <v>58.64732740468897</v>
       </c>
       <c r="AH22" t="n">
-        <v>90.68164486205646</v>
+        <v>44.75729075702969</v>
       </c>
       <c r="AI22" t="n">
-        <v>82.31590319896409</v>
+        <v>91.43780098340281</v>
       </c>
       <c r="AJ22" t="n">
-        <v>73.2877497064937</v>
+        <v>66.78766594039033</v>
       </c>
       <c r="AK22" t="n">
-        <v>33.38661780012384</v>
+        <v>26.92832609279076</v>
       </c>
       <c r="AL22" t="n">
-        <v>87.83238403708967</v>
+        <v>87.24078809115562</v>
       </c>
       <c r="AM22" t="n">
-        <v>17.64415120537914</v>
+        <v>19.11228292667889</v>
       </c>
       <c r="AN22" t="n">
-        <v>27.77747938406283</v>
+        <v>25.06489529421775</v>
       </c>
       <c r="AO22" t="n">
-        <v>38.22299563807687</v>
+        <v>36.6157867006876</v>
       </c>
       <c r="AP22" t="n">
-        <v>30.10973549516366</v>
+        <v>17.90630081816617</v>
       </c>
       <c r="AQ22" t="n">
-        <v>14.47279075475025</v>
+        <v>10.12551294740007</v>
       </c>
       <c r="AR22" t="n">
-        <v>18.31098294697151</v>
+        <v>30.04523141824924</v>
       </c>
       <c r="AS22" t="n">
-        <v>26.11352303137099</v>
+        <v>26.04557027576297</v>
       </c>
       <c r="AT22" t="n">
-        <v>9.461001591675585</v>
+        <v>3.11079032729219</v>
       </c>
       <c r="AU22" t="n">
-        <v>5.814879938355183</v>
+        <v>10.40170611101925</v>
       </c>
       <c r="AV22" t="n">
-        <v>14.54824901776451</v>
+        <v>32.92647338375171</v>
       </c>
       <c r="AW22" t="n">
-        <v>13.29901141534355</v>
+        <v>17.84745607653236</v>
       </c>
       <c r="AX22" t="n">
-        <v>8.841730705349587</v>
+        <v>31.18556813448508</v>
       </c>
     </row>
     <row r="23">
@@ -3885,148 +3885,148 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>41.46078451202806</v>
+        <v>51.55604052588728</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>27.37685627113051</v>
       </c>
       <c r="F23" t="n">
-        <v>7.461125235963243</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>16.01765769802897</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.404558999575446</v>
+        <v>23.12161717899466</v>
       </c>
       <c r="J23" t="n">
-        <v>34.07226304769013</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>38.48469485657768</v>
+        <v>22.64068474792429</v>
       </c>
       <c r="L23" t="n">
-        <v>18.64280050866055</v>
+        <v>45.27619950425019</v>
       </c>
       <c r="M23" t="n">
-        <v>4.37248172135247</v>
+        <v>51.91063504227129</v>
       </c>
       <c r="N23" t="n">
-        <v>85.19103146293713</v>
+        <v>116.1547380528392</v>
       </c>
       <c r="O23" t="n">
-        <v>59.0285098820178</v>
+        <v>26.44678994851328</v>
       </c>
       <c r="P23" t="n">
-        <v>18.48862834058833</v>
+        <v>172.5206047547174</v>
       </c>
       <c r="Q23" t="n">
-        <v>41.88199031244911</v>
+        <v>74.7242305101218</v>
       </c>
       <c r="R23" t="n">
-        <v>91.29949263574004</v>
+        <v>11.74733599305135</v>
       </c>
       <c r="S23" t="n">
-        <v>67.58674376638606</v>
+        <v>41.39037870805974</v>
       </c>
       <c r="T23" t="n">
-        <v>83.29585211361074</v>
+        <v>70.63900751294145</v>
       </c>
       <c r="U23" t="n">
-        <v>39.59997458494016</v>
+        <v>37.78123086728827</v>
       </c>
       <c r="V23" t="n">
-        <v>31.41363044404691</v>
+        <v>44.89751524740106</v>
       </c>
       <c r="W23" t="n">
-        <v>133.2718012522137</v>
+        <v>37.18068894927303</v>
       </c>
       <c r="X23" t="n">
-        <v>42.00081044010111</v>
+        <v>43.44185527714932</v>
       </c>
       <c r="Y23" t="n">
-        <v>45.36712113617424</v>
+        <v>31.99855066979989</v>
       </c>
       <c r="Z23" t="n">
-        <v>58.19964286383516</v>
+        <v>10.04814000758775</v>
       </c>
       <c r="AA23" t="n">
-        <v>24.79049591464152</v>
+        <v>21.9380291517178</v>
       </c>
       <c r="AB23" t="n">
-        <v>46.22453163901647</v>
+        <v>27.97039209567003</v>
       </c>
       <c r="AC23" t="n">
-        <v>51.21772900809859</v>
+        <v>29.34930874987903</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.57986640857171</v>
+        <v>31.65265944855375</v>
       </c>
       <c r="AE23" t="n">
-        <v>31.1927626160824</v>
+        <v>0.1679824433319763</v>
       </c>
       <c r="AF23" t="n">
-        <v>41.27185295419</v>
+        <v>32.86263572001602</v>
       </c>
       <c r="AG23" t="n">
-        <v>33.07893290457586</v>
+        <v>84.22329829605133</v>
       </c>
       <c r="AH23" t="n">
-        <v>33.79394182361715</v>
+        <v>11.08555981026979</v>
       </c>
       <c r="AI23" t="n">
-        <v>26.78021572385895</v>
+        <v>71.88296796183045</v>
       </c>
       <c r="AJ23" t="n">
-        <v>37.60049401652192</v>
+        <v>45.934621261196</v>
       </c>
       <c r="AK23" t="n">
-        <v>27.85350283934864</v>
+        <v>75.62951480020749</v>
       </c>
       <c r="AL23" t="n">
-        <v>27.73721613856406</v>
+        <v>25.53201136116558</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.436680512449388</v>
+        <v>4.400766934848364</v>
       </c>
       <c r="AN23" t="n">
-        <v>34.90651782256273</v>
+        <v>3.686818022317424</v>
       </c>
       <c r="AO23" t="n">
-        <v>14.12900570835917</v>
+        <v>65.15379870247611</v>
       </c>
       <c r="AP23" t="n">
-        <v>31.13799960843128</v>
+        <v>34.04062219352404</v>
       </c>
       <c r="AQ23" t="n">
-        <v>5.55611967865276</v>
+        <v>22.76091418582841</v>
       </c>
       <c r="AR23" t="n">
-        <v>44.64980926650151</v>
+        <v>65.97885634754424</v>
       </c>
       <c r="AS23" t="n">
-        <v>38.58008616274359</v>
+        <v>20.15685262115845</v>
       </c>
       <c r="AT23" t="n">
-        <v>7.146077049079311</v>
+        <v>23.30548597637128</v>
       </c>
       <c r="AU23" t="n">
-        <v>0</v>
+        <v>39.12248743359597</v>
       </c>
       <c r="AV23" t="n">
-        <v>29.16944720470124</v>
+        <v>22.65361283752612</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.321809629283607</v>
+        <v>5.880513543371221</v>
       </c>
       <c r="AX23" t="n">
-        <v>23.07092170508438</v>
+        <v>42.77082753583493</v>
       </c>
     </row>
     <row r="24">
@@ -4040,145 +4040,145 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.779863852886062</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.119066966853101</v>
       </c>
       <c r="G24" t="n">
-        <v>12.47422048074502</v>
+        <v>1.670490297962762</v>
       </c>
       <c r="H24" t="n">
-        <v>15.22675282870913</v>
+        <v>5.17349937892318</v>
       </c>
       <c r="I24" t="n">
-        <v>7.323277905119436</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.230498031843114</v>
+        <v>17.51912301418183</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03212199655297</v>
+        <v>7.004769567609602</v>
       </c>
       <c r="L24" t="n">
-        <v>21.22773969111142</v>
+        <v>3.550604456352162</v>
       </c>
       <c r="M24" t="n">
-        <v>31.16803268773591</v>
+        <v>1.583115687484394</v>
       </c>
       <c r="N24" t="n">
-        <v>41.42984434361355</v>
+        <v>34.02462783200633</v>
       </c>
       <c r="O24" t="n">
-        <v>18.43044906525038</v>
+        <v>27.84922718741916</v>
       </c>
       <c r="P24" t="n">
-        <v>15.49447540588233</v>
+        <v>11.85464837628878</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.32456867448505</v>
+        <v>34.32245195774958</v>
       </c>
       <c r="R24" t="n">
-        <v>26.8534005230528</v>
+        <v>1.217943825305747</v>
       </c>
       <c r="S24" t="n">
-        <v>10.97350532755349</v>
+        <v>15.07981383631638</v>
       </c>
       <c r="T24" t="n">
-        <v>40.10195720280412</v>
+        <v>26.89455716558145</v>
       </c>
       <c r="U24" t="n">
-        <v>55.74877075697471</v>
+        <v>14.18128458705991</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>26.5261712444089</v>
       </c>
       <c r="W24" t="n">
-        <v>16.1120637040776</v>
+        <v>31.60113956136147</v>
       </c>
       <c r="X24" t="n">
-        <v>12.09362002521753</v>
+        <v>37.78461016054602</v>
       </c>
       <c r="Y24" t="n">
-        <v>12.9459776331718</v>
+        <v>24.91927899208397</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.40087509959355</v>
+        <v>13.28600479705102</v>
       </c>
       <c r="AA24" t="n">
-        <v>14.48288572276</v>
+        <v>2.39931051867793</v>
       </c>
       <c r="AB24" t="n">
-        <v>17.33790163291956</v>
+        <v>28.83790272199176</v>
       </c>
       <c r="AC24" t="n">
-        <v>28.10325410903006</v>
+        <v>14.09348703496498</v>
       </c>
       <c r="AD24" t="n">
-        <v>28.59450911051694</v>
+        <v>30.89210677208617</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.3567582934459</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.06165303066116</v>
+        <v>17.20281612051847</v>
       </c>
       <c r="AG24" t="n">
-        <v>24.0746484253261</v>
+        <v>15.56264477652888</v>
       </c>
       <c r="AH24" t="n">
-        <v>10.53509464610374</v>
+        <v>31.99204994596827</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.37474303436933</v>
+        <v>7.643424820519728</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>10.4115894913334</v>
       </c>
       <c r="AK24" t="n">
-        <v>2.664833239144678</v>
+        <v>29.42474843581683</v>
       </c>
       <c r="AL24" t="n">
-        <v>9.612980024773506</v>
+        <v>15.45184642668521</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.994022790137577</v>
+        <v>1.09163648751821</v>
       </c>
       <c r="AN24" t="n">
-        <v>1.155045495556631</v>
+        <v>11.00734663672758</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.7900507928029222</v>
+        <v>1.098492281723991</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.458221766923771</v>
+        <v>3.642696327088523</v>
       </c>
       <c r="AQ24" t="n">
-        <v>4.76480007966371</v>
+        <v>2.189190461023294</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.759992939763624</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.75192465991326</v>
+        <v>4.97842329876541</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.286564594720448</v>
+        <v>11.06134650429133</v>
       </c>
       <c r="AU24" t="n">
-        <v>1.325661129879633</v>
+        <v>0.4320407736249161</v>
       </c>
       <c r="AV24" t="n">
-        <v>3.651499474859869</v>
+        <v>10.89102887229889</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.340404454074234</v>
+        <v>2.825192531140253</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.224645491958031</v>
+        <v>1.590360521617435</v>
       </c>
     </row>
     <row r="25">
@@ -4189,13 +4189,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>10.18821153989433</v>
+        <v>15.86015992906687</v>
       </c>
       <c r="D25" t="n">
-        <v>7.541597214937632</v>
+        <v>104.6886327081449</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.640627231507387</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -4204,133 +4204,133 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>33.17436865518643</v>
+        <v>12.57630739382186</v>
       </c>
       <c r="I25" t="n">
-        <v>25.81207348249465</v>
+        <v>35.68225904942132</v>
       </c>
       <c r="J25" t="n">
-        <v>30.51627317240382</v>
+        <v>10.09053441160572</v>
       </c>
       <c r="K25" t="n">
-        <v>40.08423916913127</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.0955087555761</v>
+        <v>16.36748692958889</v>
       </c>
       <c r="M25" t="n">
-        <v>57.57196202529401</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>69.32918333753196</v>
+        <v>24.36338565682139</v>
       </c>
       <c r="O25" t="n">
-        <v>30.06612859758112</v>
+        <v>29.57383526002386</v>
       </c>
       <c r="P25" t="n">
-        <v>21.66504126660307</v>
+        <v>37.46867833120491</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.89358545198943</v>
+        <v>122.0870313846949</v>
       </c>
       <c r="R25" t="n">
-        <v>23.91433524272553</v>
+        <v>24.02072380109774</v>
       </c>
       <c r="S25" t="n">
-        <v>9.199852880560449</v>
+        <v>30.15809754832359</v>
       </c>
       <c r="T25" t="n">
-        <v>49.08078277831859</v>
+        <v>38.32205115332858</v>
       </c>
       <c r="U25" t="n">
-        <v>54.32498018585847</v>
+        <v>70.16422307866586</v>
       </c>
       <c r="V25" t="n">
-        <v>15.5736934835446</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>31.63593521641749</v>
+        <v>43.24465970064077</v>
       </c>
       <c r="X25" t="n">
-        <v>14.07138776659212</v>
+        <v>102.1028835663818</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>10.31934672960323</v>
       </c>
       <c r="Z25" t="n">
-        <v>11.27624504745616</v>
+        <v>64.93560469457394</v>
       </c>
       <c r="AA25" t="n">
-        <v>15.16830472527178</v>
+        <v>0.5451198439241256</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.84556898114992</v>
+        <v>3.409783884084893</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.935246780911953</v>
+        <v>46.77903231381308</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.7810581492866582</v>
+        <v>4.803614620829008</v>
       </c>
       <c r="AE25" t="n">
-        <v>4.958322971026317</v>
+        <v>10.39851257556542</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.644297140694452</v>
+        <v>7.388690029539658</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>5.906538169059893</v>
       </c>
       <c r="AH25" t="n">
-        <v>13.57217708265421</v>
+        <v>4.030383023728768</v>
       </c>
       <c r="AI25" t="n">
-        <v>20.47135644040757</v>
+        <v>4.878072795263368</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>7.578118036452683</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.58853169356596</v>
+        <v>19.97631117155411</v>
       </c>
       <c r="AL25" t="n">
-        <v>44.31787372558918</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>3.831807219431154</v>
+        <v>4.699318872761637</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.827670299622051</v>
+        <v>2.53154078989158</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.655952620856477</v>
+        <v>3.918997303499408</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.143574441694617</v>
+        <v>5.252118681101415</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>15.93746955307157</v>
       </c>
       <c r="AR25" t="n">
-        <v>7.46716695348699</v>
+        <v>5.062184038519044</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.663275860682387</v>
+        <v>11.72249509717176</v>
       </c>
       <c r="AT25" t="n">
-        <v>11.24381956788501</v>
+        <v>7.830553985972109</v>
       </c>
       <c r="AU25" t="n">
-        <v>3.841445449172852</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>56.06784828493694</v>
+        <v>3.166770985419398</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.975078176439918</v>
+        <v>14.53354239407524</v>
       </c>
       <c r="AX25" t="n">
-        <v>8.633275909046079</v>
+        <v>7.789917796691443</v>
       </c>
     </row>
     <row r="26">
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>19.23885111561309</v>
+        <v>61.04069417043613</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4350,139 +4350,139 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>5.814685386074384</v>
+        <v>161.9236903469003</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>32.82711023798365</v>
       </c>
       <c r="H26" t="n">
-        <v>23.82447384779108</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>11.85141938950697</v>
+        <v>6.038202530561248</v>
       </c>
       <c r="J26" t="n">
-        <v>121.6349555381448</v>
+        <v>168.4300076373683</v>
       </c>
       <c r="K26" t="n">
-        <v>309.0072664000477</v>
+        <v>29.18610068033843</v>
       </c>
       <c r="L26" t="n">
-        <v>26.0037340691649</v>
+        <v>20.67317893172819</v>
       </c>
       <c r="M26" t="n">
-        <v>48.63373955444889</v>
+        <v>135.3533493757999</v>
       </c>
       <c r="N26" t="n">
-        <v>14.81669261792852</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>66.19597760180449</v>
+        <v>30.09641833723566</v>
       </c>
       <c r="P26" t="n">
-        <v>62.84422237478714</v>
+        <v>52.01962716733499</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.29505635196461</v>
+        <v>60.80388662382074</v>
       </c>
       <c r="R26" t="n">
-        <v>29.05567824056389</v>
+        <v>35.42685677134403</v>
       </c>
       <c r="S26" t="n">
-        <v>106.854286894381</v>
+        <v>83.68270144666057</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03227736995635</v>
+        <v>69.79922241823758</v>
       </c>
       <c r="U26" t="n">
-        <v>73.1525166737421</v>
+        <v>41.43784729571257</v>
       </c>
       <c r="V26" t="n">
-        <v>79.22916955976847</v>
+        <v>42.99176228940005</v>
       </c>
       <c r="W26" t="n">
-        <v>41.56315344306805</v>
+        <v>39.34341533900139</v>
       </c>
       <c r="X26" t="n">
-        <v>51.40821488870639</v>
+        <v>98.9284244522684</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.36077960001728</v>
+        <v>57.71919871809999</v>
       </c>
       <c r="Z26" t="n">
-        <v>92.48619252805375</v>
+        <v>54.10519116847399</v>
       </c>
       <c r="AA26" t="n">
-        <v>35.96258734694888</v>
+        <v>118.1904019075073</v>
       </c>
       <c r="AB26" t="n">
-        <v>53.80758543657424</v>
+        <v>108.8729291823302</v>
       </c>
       <c r="AC26" t="n">
-        <v>72.99073154488025</v>
+        <v>103.1702535187765</v>
       </c>
       <c r="AD26" t="n">
-        <v>97.06895143907158</v>
+        <v>166.1622956299215</v>
       </c>
       <c r="AE26" t="n">
-        <v>135.5278609357879</v>
+        <v>69.63964454818647</v>
       </c>
       <c r="AF26" t="n">
-        <v>136.5795076481119</v>
+        <v>165.2876243413124</v>
       </c>
       <c r="AG26" t="n">
-        <v>129.8155087286042</v>
+        <v>81.98344296583029</v>
       </c>
       <c r="AH26" t="n">
-        <v>71.18375762826984</v>
+        <v>89.4220877108996</v>
       </c>
       <c r="AI26" t="n">
-        <v>75.0045641754764</v>
+        <v>98.1843899141891</v>
       </c>
       <c r="AJ26" t="n">
-        <v>81.98113726594525</v>
+        <v>109.7904579066585</v>
       </c>
       <c r="AK26" t="n">
-        <v>61.37957205135392</v>
+        <v>41.97568121748939</v>
       </c>
       <c r="AL26" t="n">
-        <v>12.73373619605802</v>
+        <v>58.99310262185423</v>
       </c>
       <c r="AM26" t="n">
-        <v>39.44171785851887</v>
+        <v>26.03913653176667</v>
       </c>
       <c r="AN26" t="n">
-        <v>44.61266501799561</v>
+        <v>22.25832854318679</v>
       </c>
       <c r="AO26" t="n">
-        <v>49.77722795670125</v>
+        <v>15.0453158978309</v>
       </c>
       <c r="AP26" t="n">
-        <v>38.68965441450037</v>
+        <v>22.47406218267951</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9.404744488364903</v>
+        <v>32.5881908409814</v>
       </c>
       <c r="AR26" t="n">
-        <v>26.67731731895153</v>
+        <v>21.89182040742418</v>
       </c>
       <c r="AS26" t="n">
-        <v>27.67481478971673</v>
+        <v>3.374053385414282</v>
       </c>
       <c r="AT26" t="n">
-        <v>18.23102122233535</v>
+        <v>32.97717695552063</v>
       </c>
       <c r="AU26" t="n">
-        <v>14.9801855265061</v>
+        <v>20.48317324059964</v>
       </c>
       <c r="AV26" t="n">
-        <v>24.95920392169538</v>
+        <v>46.18760505284614</v>
       </c>
       <c r="AW26" t="n">
-        <v>17.20219674712291</v>
+        <v>11.99432035800023</v>
       </c>
       <c r="AX26" t="n">
-        <v>12.89777815450878</v>
+        <v>29.72294229261464</v>
       </c>
     </row>
     <row r="27">
@@ -4496,145 +4496,145 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.183351518816114</v>
+        <v>6.167679310341623</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2.264295037545187</v>
+        <v>0.3881042458361638</v>
       </c>
       <c r="G27" t="n">
-        <v>2.238794877259532</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>3.751668848469449</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.542012658031238</v>
+        <v>1.816416561351102</v>
       </c>
       <c r="J27" t="n">
-        <v>13.69239489996523</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2946494448462297</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05035471059441725</v>
+        <v>3.891290791499288</v>
       </c>
       <c r="M27" t="n">
-        <v>0.101287563972342</v>
+        <v>1.770101994599649</v>
       </c>
       <c r="N27" t="n">
-        <v>5.432667224340376</v>
+        <v>0.860233963884609</v>
       </c>
       <c r="O27" t="n">
-        <v>3.46035834187286</v>
+        <v>4.01610613614048</v>
       </c>
       <c r="P27" t="n">
-        <v>6.447100214149802</v>
+        <v>3.167597640335747</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.973590732407946</v>
+        <v>9.729057104452512</v>
       </c>
       <c r="R27" t="n">
-        <v>3.765909197457363</v>
+        <v>3.845704121221768</v>
       </c>
       <c r="S27" t="n">
-        <v>3.632090525624862</v>
+        <v>4.677700899725279</v>
       </c>
       <c r="T27" t="n">
-        <v>5.024994818072129</v>
+        <v>9.480815590197668</v>
       </c>
       <c r="U27" t="n">
-        <v>1.085101804950375</v>
+        <v>11.75543628966211</v>
       </c>
       <c r="V27" t="n">
-        <v>8.304328974331648</v>
+        <v>12.93318025570384</v>
       </c>
       <c r="W27" t="n">
-        <v>3.999059045996861</v>
+        <v>8.82793033687134</v>
       </c>
       <c r="X27" t="n">
-        <v>0.9984302909183751</v>
+        <v>4.099509481470831</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.259881649335975</v>
+        <v>5.42894285000285</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.520137721231793</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.300689626175348</v>
+        <v>5.958179661447635</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.431775480861161</v>
+        <v>4.517674973315522</v>
       </c>
       <c r="AC27" t="n">
-        <v>5.9778739079267</v>
+        <v>4.313607932674969</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.673909633258692</v>
+        <v>3.804220470111264</v>
       </c>
       <c r="AE27" t="n">
-        <v>2.479423844051071</v>
+        <v>6.014880633156307</v>
       </c>
       <c r="AF27" t="n">
-        <v>8.1833672821967</v>
+        <v>3.876323405227147</v>
       </c>
       <c r="AG27" t="n">
-        <v>10.57683434061753</v>
+        <v>5.248991856754671</v>
       </c>
       <c r="AH27" t="n">
-        <v>6.627278445159827</v>
+        <v>6.536214485812339</v>
       </c>
       <c r="AI27" t="n">
-        <v>6.883987402674577</v>
+        <v>6.013869916843914</v>
       </c>
       <c r="AJ27" t="n">
-        <v>4.514746921154748</v>
+        <v>5.808369903341012</v>
       </c>
       <c r="AK27" t="n">
-        <v>4.204504113848876</v>
+        <v>4.524648071548113</v>
       </c>
       <c r="AL27" t="n">
-        <v>5.041091832919218</v>
+        <v>3.574078625406473</v>
       </c>
       <c r="AM27" t="n">
-        <v>4.002069601640892</v>
+        <v>7.463584236104315</v>
       </c>
       <c r="AN27" t="n">
-        <v>6.795559338122647</v>
+        <v>4.864778298764089</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.726974299405629</v>
+        <v>4.455692181181736</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.417124657776234</v>
+        <v>8.134286847299043</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.040712717431625</v>
+        <v>4.606321382191309</v>
       </c>
       <c r="AR27" t="n">
-        <v>4.44706010600427</v>
+        <v>1.177330867239718</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.126743779292125</v>
+        <v>5.638395351450156</v>
       </c>
       <c r="AT27" t="n">
-        <v>6.026475965489789</v>
+        <v>1.954764037684776</v>
       </c>
       <c r="AU27" t="n">
-        <v>4.668677348057265</v>
+        <v>6.311323984330173</v>
       </c>
       <c r="AV27" t="n">
-        <v>1.300845448173811</v>
+        <v>2.632476664984697</v>
       </c>
       <c r="AW27" t="n">
-        <v>3.683264268795185</v>
+        <v>6.32382618828208</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.689333948453832</v>
+        <v>4.629070282360383</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>86.88869233064622</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>10.03617644448605</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.47559079102501</v>
       </c>
       <c r="G28" t="n">
-        <v>2.813138229683187</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>28.5705351470915</v>
+        <v>8.016211362366759</v>
       </c>
       <c r="I28" t="n">
-        <v>22.15600478880634</v>
+        <v>56.42316584868562</v>
       </c>
       <c r="J28" t="n">
-        <v>508.5198284103516</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>103.8975717529478</v>
+        <v>56.49735718169482</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>6.577355947198925</v>
       </c>
       <c r="M28" t="n">
-        <v>17.61503363427995</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>36.03847705625729</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>46.10838643093651</v>
+        <v>123.5723255897118</v>
       </c>
       <c r="P28" t="n">
-        <v>80.77782176090255</v>
+        <v>48.00572335091606</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.17697940107992</v>
+        <v>27.18637535354376</v>
       </c>
       <c r="R28" t="n">
-        <v>10.15215796244837</v>
+        <v>48.6676036287125</v>
       </c>
       <c r="S28" t="n">
-        <v>28.27679885299784</v>
+        <v>56.75102199742079</v>
       </c>
       <c r="T28" t="n">
-        <v>68.77076354659651</v>
+        <v>179.6636648058795</v>
       </c>
       <c r="U28" t="n">
-        <v>42.12630359109751</v>
+        <v>93.75731367467951</v>
       </c>
       <c r="V28" t="n">
-        <v>375.9978933348526</v>
+        <v>89.42834550687108</v>
       </c>
       <c r="W28" t="n">
-        <v>26.71148043846837</v>
+        <v>17.43747416555791</v>
       </c>
       <c r="X28" t="n">
-        <v>45.08095448792618</v>
+        <v>103.5746972529823</v>
       </c>
       <c r="Y28" t="n">
-        <v>58.24483445188334</v>
+        <v>62.81903536101156</v>
       </c>
       <c r="Z28" t="n">
-        <v>55.45046062291017</v>
+        <v>52.37289784456669</v>
       </c>
       <c r="AA28" t="n">
-        <v>71.11976170522695</v>
+        <v>44.66972147530391</v>
       </c>
       <c r="AB28" t="n">
-        <v>64.93261101873385</v>
+        <v>64.04048582489337</v>
       </c>
       <c r="AC28" t="n">
-        <v>123.2256654632851</v>
+        <v>31.73588628060019</v>
       </c>
       <c r="AD28" t="n">
-        <v>72.45030739998961</v>
+        <v>63.48487484747197</v>
       </c>
       <c r="AE28" t="n">
-        <v>93.96832370514241</v>
+        <v>49.8824695704219</v>
       </c>
       <c r="AF28" t="n">
-        <v>69.85134459653767</v>
+        <v>78.95414830817361</v>
       </c>
       <c r="AG28" t="n">
-        <v>82.69914846975989</v>
+        <v>40.3977485325406</v>
       </c>
       <c r="AH28" t="n">
-        <v>61.28121732221746</v>
+        <v>98.20208713399914</v>
       </c>
       <c r="AI28" t="n">
-        <v>26.43817665483179</v>
+        <v>19.18100960413616</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.84490083266789</v>
+        <v>31.14740299110837</v>
       </c>
       <c r="AK28" t="n">
-        <v>26.6853417644049</v>
+        <v>97.8388779869632</v>
       </c>
       <c r="AL28" t="n">
-        <v>21.63278384907002</v>
+        <v>43.82811037953632</v>
       </c>
       <c r="AM28" t="n">
-        <v>11.68795917659063</v>
+        <v>11.01648433906087</v>
       </c>
       <c r="AN28" t="n">
-        <v>41.9772266160456</v>
+        <v>7.986851141447171</v>
       </c>
       <c r="AO28" t="n">
-        <v>26.71561442241434</v>
+        <v>10.61538676313918</v>
       </c>
       <c r="AP28" t="n">
-        <v>15.76081742584877</v>
+        <v>16.01636824492602</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25.2023481378103</v>
+        <v>7.392023035892317</v>
       </c>
       <c r="AR28" t="n">
-        <v>13.42394135435893</v>
+        <v>15.34882310253822</v>
       </c>
       <c r="AS28" t="n">
-        <v>11.54361422320208</v>
+        <v>16.10903977338963</v>
       </c>
       <c r="AT28" t="n">
-        <v>8.080115618019157</v>
+        <v>18.70442940533887</v>
       </c>
       <c r="AU28" t="n">
-        <v>9.682832857149474</v>
+        <v>11.95432407256708</v>
       </c>
       <c r="AV28" t="n">
-        <v>10.03095874733231</v>
+        <v>3.575309568941803</v>
       </c>
       <c r="AW28" t="n">
-        <v>9.951990104169941</v>
+        <v>10.95130070960704</v>
       </c>
       <c r="AX28" t="n">
-        <v>8.615174203890355</v>
+        <v>40.90710861094034</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>23.8702900586729</v>
+        <v>14.96282836657379</v>
       </c>
       <c r="D29" t="n">
-        <v>27.31413506941273</v>
+        <v>11.22099417348809</v>
       </c>
       <c r="E29" t="n">
-        <v>3.245440303993239</v>
+        <v>26.18343943205584</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>21.58453146068232</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>15.57582435231419</v>
+        <v>93.86854007548762</v>
       </c>
       <c r="I29" t="n">
-        <v>17.03992190397296</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>42.15892246451903</v>
+        <v>13.44244023877628</v>
       </c>
       <c r="K29" t="n">
-        <v>16.35871143319962</v>
+        <v>21.05108443630312</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>67.61527679646295</v>
       </c>
       <c r="M29" t="n">
-        <v>21.22584627819239</v>
+        <v>34.10503133669076</v>
       </c>
       <c r="N29" t="n">
-        <v>255.5346427942051</v>
+        <v>16.98972015354956</v>
       </c>
       <c r="O29" t="n">
-        <v>3.85899707472853</v>
+        <v>100.0167503674725</v>
       </c>
       <c r="P29" t="n">
-        <v>2.690121701202376</v>
+        <v>1.147850637383659</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.028232807372</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>86.8831270375876</v>
+        <v>67.11045568780941</v>
       </c>
       <c r="S29" t="n">
-        <v>55.23092469032111</v>
+        <v>33.59740273435641</v>
       </c>
       <c r="T29" t="n">
-        <v>107.1694809163564</v>
+        <v>15.61957674162887</v>
       </c>
       <c r="U29" t="n">
-        <v>36.91659370187334</v>
+        <v>47.5176022023924</v>
       </c>
       <c r="V29" t="n">
-        <v>11.20074272492485</v>
+        <v>117.1543893913519</v>
       </c>
       <c r="W29" t="n">
-        <v>29.03787283186448</v>
+        <v>78.03549724518651</v>
       </c>
       <c r="X29" t="n">
-        <v>32.66748502692736</v>
+        <v>25.17529416831993</v>
       </c>
       <c r="Y29" t="n">
-        <v>77.29530101166934</v>
+        <v>79.8017355276213</v>
       </c>
       <c r="Z29" t="n">
-        <v>15.23849846003845</v>
+        <v>61.84321174871265</v>
       </c>
       <c r="AA29" t="n">
-        <v>6.778874869514974</v>
+        <v>28.8616391164544</v>
       </c>
       <c r="AB29" t="n">
-        <v>76.45110511357241</v>
+        <v>0.1640471818365263</v>
       </c>
       <c r="AC29" t="n">
-        <v>14.88135974493947</v>
+        <v>26.25668267849889</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>0.2443452468155245</v>
       </c>
       <c r="AE29" t="n">
-        <v>60.44623989700494</v>
+        <v>47.54416526353632</v>
       </c>
       <c r="AF29" t="n">
-        <v>26.90221567648433</v>
+        <v>35.66401721638311</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.22522856057263</v>
+        <v>3.709415588077416</v>
       </c>
       <c r="AH29" t="n">
-        <v>24.18605224114911</v>
+        <v>25.76544194556704</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>34.5468204285173</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15.42477949687702</v>
+        <v>8.105390895796587</v>
       </c>
       <c r="AK29" t="n">
-        <v>24.7258321238223</v>
+        <v>156.4619138363406</v>
       </c>
       <c r="AL29" t="n">
-        <v>32.87936255719404</v>
+        <v>38.70079275021761</v>
       </c>
       <c r="AM29" t="n">
-        <v>45.29331648798149</v>
+        <v>29.5317490851399</v>
       </c>
       <c r="AN29" t="n">
-        <v>2.194746378854189</v>
+        <v>11.94133053839182</v>
       </c>
       <c r="AO29" t="n">
-        <v>34.2881019722837</v>
+        <v>17.83264592522914</v>
       </c>
       <c r="AP29" t="n">
-        <v>17.00700007854148</v>
+        <v>28.75403764868316</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11.26053635553909</v>
+        <v>27.22115694524441</v>
       </c>
       <c r="AR29" t="n">
-        <v>30.13215857023324</v>
+        <v>37.89997847618933</v>
       </c>
       <c r="AS29" t="n">
-        <v>7.739744016654113</v>
+        <v>7.88207281186756</v>
       </c>
       <c r="AT29" t="n">
-        <v>25.27238182793339</v>
+        <v>22.52780424883039</v>
       </c>
       <c r="AU29" t="n">
-        <v>35.83967059513768</v>
+        <v>21.31869124769056</v>
       </c>
       <c r="AV29" t="n">
-        <v>29.48548161096834</v>
+        <v>16.86493206103498</v>
       </c>
       <c r="AW29" t="n">
-        <v>20.9988381410746</v>
+        <v>19.79652623396109</v>
       </c>
       <c r="AX29" t="n">
-        <v>31.87872573625101</v>
+        <v>30.78849918815703</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>92.65146730378289</v>
       </c>
       <c r="D30" t="n">
-        <v>1.831181265626771</v>
+        <v>45.8369381180685</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2.605584830498493</v>
       </c>
       <c r="G30" t="n">
-        <v>10.34653642572408</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>5.042077134370265</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>53.77399462591636</v>
+        <v>14.38505910831918</v>
       </c>
       <c r="J30" t="n">
-        <v>4.067267996805985</v>
+        <v>0.08602049767368092</v>
       </c>
       <c r="K30" t="n">
-        <v>10.96213350294356</v>
+        <v>12.24816632592469</v>
       </c>
       <c r="L30" t="n">
-        <v>4.311451962480026</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>23.68484044372984</v>
+        <v>12.07799919606305</v>
       </c>
       <c r="N30" t="n">
-        <v>34.78094748678927</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>35.35717986577388</v>
+        <v>23.76343070990779</v>
       </c>
       <c r="P30" t="n">
-        <v>25.17706996810976</v>
+        <v>4.227890750753772</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.60061214008624</v>
+        <v>17.46358819604916</v>
       </c>
       <c r="R30" t="n">
-        <v>10.04480599720329</v>
+        <v>22.75662583816189</v>
       </c>
       <c r="S30" t="n">
-        <v>28.12214498410128</v>
+        <v>9.3929936742711</v>
       </c>
       <c r="T30" t="n">
-        <v>22.23991900241872</v>
+        <v>5.794476794647823</v>
       </c>
       <c r="U30" t="n">
-        <v>33.49682714159507</v>
+        <v>11.01459137636269</v>
       </c>
       <c r="V30" t="n">
-        <v>124.7194688406437</v>
+        <v>20.94624223870271</v>
       </c>
       <c r="W30" t="n">
-        <v>40.65889831897405</v>
+        <v>20.6577810529319</v>
       </c>
       <c r="X30" t="n">
-        <v>17.90811717385757</v>
+        <v>27.69217192890155</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.972031485001331</v>
+        <v>29.1024482235798</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.85320361216188</v>
+        <v>40.17732954142011</v>
       </c>
       <c r="AA30" t="n">
-        <v>13.81776694458324</v>
+        <v>13.50616125186887</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.27909408830311</v>
+        <v>12.17930656545172</v>
       </c>
       <c r="AC30" t="n">
-        <v>14.69754657590629</v>
+        <v>9.415010050876804</v>
       </c>
       <c r="AD30" t="n">
-        <v>20.59786118733636</v>
+        <v>14.69704642317969</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.193734180843388</v>
+        <v>16.33598051818821</v>
       </c>
       <c r="AF30" t="n">
-        <v>18.05539225162872</v>
+        <v>10.90153359316383</v>
       </c>
       <c r="AG30" t="n">
-        <v>33.81203327177276</v>
+        <v>11.73803528640935</v>
       </c>
       <c r="AH30" t="n">
-        <v>10.4073628466712</v>
+        <v>9.57149625381896</v>
       </c>
       <c r="AI30" t="n">
-        <v>13.16439241477085</v>
+        <v>18.50063883844256</v>
       </c>
       <c r="AJ30" t="n">
-        <v>5.43643499366067</v>
+        <v>22.82380218060804</v>
       </c>
       <c r="AK30" t="n">
-        <v>11.8383392385727</v>
+        <v>14.92546759239013</v>
       </c>
       <c r="AL30" t="n">
-        <v>9.953257082874481</v>
+        <v>92.05184554686872</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.9877380467353418</v>
+        <v>4.977303030886926</v>
       </c>
       <c r="AN30" t="n">
-        <v>6.743420605160849</v>
+        <v>2.282245666321244</v>
       </c>
       <c r="AO30" t="n">
-        <v>5.025102853261167</v>
+        <v>10.49043611867746</v>
       </c>
       <c r="AP30" t="n">
-        <v>5.022116232072582</v>
+        <v>1.27010462872833</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.312663146315342</v>
+        <v>0.05685612246492627</v>
       </c>
       <c r="AR30" t="n">
-        <v>1.268582683340551</v>
+        <v>2.20203915470015</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.612329033120091</v>
+        <v>6.17076180413158</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.634305999350707</v>
+        <v>0.09276218610386833</v>
       </c>
       <c r="AU30" t="n">
-        <v>3.315185214942275</v>
+        <v>4.099105612211783</v>
       </c>
       <c r="AV30" t="n">
-        <v>1.620707446380413</v>
+        <v>1.278093517245935</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.732672035995581</v>
+        <v>5.86587388738476</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.9312764594274721</v>
+        <v>1.701300436509545</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>1.120376531142594</v>
+        <v>11.58898842260994</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>70.6402253555876</v>
       </c>
       <c r="E31" t="n">
-        <v>11.18982297462874</v>
+        <v>8.33722914913545</v>
       </c>
       <c r="F31" t="n">
-        <v>14.53290970748861</v>
+        <v>14.0393102137752</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>31.67661456997383</v>
       </c>
       <c r="H31" t="n">
-        <v>34.88552596929129</v>
+        <v>183.0696357806319</v>
       </c>
       <c r="I31" t="n">
-        <v>33.8412443616294</v>
+        <v>1.007089887998949</v>
       </c>
       <c r="J31" t="n">
-        <v>98.35152086589837</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>11.98874663901705</v>
+        <v>24.58645914031879</v>
       </c>
       <c r="L31" t="n">
-        <v>41.1486238750409</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>11.21442598649395</v>
+        <v>82.97034215444764</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01458639121104</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>13.84133494404597</v>
+        <v>28.59468197742164</v>
       </c>
       <c r="P31" t="n">
-        <v>55.98280698319888</v>
+        <v>41.18197174149549</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.69043026654471</v>
+        <v>56.50708810761951</v>
       </c>
       <c r="R31" t="n">
-        <v>59.38626847540066</v>
+        <v>26.0930412436587</v>
       </c>
       <c r="S31" t="n">
-        <v>75.90649052285571</v>
+        <v>0.2500183051317393</v>
       </c>
       <c r="T31" t="n">
-        <v>10.52408480702849</v>
+        <v>40.09707259345429</v>
       </c>
       <c r="U31" t="n">
-        <v>24.91669377521565</v>
+        <v>52.96024373075941</v>
       </c>
       <c r="V31" t="n">
-        <v>10.56687586228476</v>
+        <v>45.71516696211174</v>
       </c>
       <c r="W31" t="n">
-        <v>78.91434277194863</v>
+        <v>35.19592476145735</v>
       </c>
       <c r="X31" t="n">
-        <v>10.58922779462379</v>
+        <v>96.5351552472182</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.602573485511608</v>
+        <v>12.58300315660126</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.283991128431535</v>
+        <v>11.46057652854995</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.63797676422178</v>
+        <v>0.6849583089699252</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.469570141764207</v>
+        <v>7.525278427412085</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.9605200044097775</v>
+        <v>1.335290137227553</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>5.437731253812141</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.124599161378925</v>
+        <v>40.40181523187452</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.3849222712611725</v>
+        <v>3.48034413128434</v>
       </c>
       <c r="AG31" t="n">
-        <v>31.46015934554242</v>
+        <v>2.480544053522534</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>13.46537184375251</v>
       </c>
       <c r="AI31" t="n">
-        <v>12.05018633846827</v>
+        <v>1.182548924129677</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.20499051846524</v>
+        <v>16.88492511522467</v>
       </c>
       <c r="AK31" t="n">
-        <v>51.95905507253878</v>
+        <v>2.827620845135216</v>
       </c>
       <c r="AL31" t="n">
-        <v>2.346718711641989</v>
+        <v>23.55261167189036</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.5187679219604324</v>
+        <v>7.080321725861507</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.298157640783565</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>6.541882197633168</v>
+        <v>7.11523952039404</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.096878976436328</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.057753269567691</v>
+        <v>3.493514425917473</v>
       </c>
       <c r="AS31" t="n">
-        <v>4.344016808098461</v>
+        <v>12.53079972736388</v>
       </c>
       <c r="AT31" t="n">
-        <v>13.9907401084427</v>
+        <v>20.5725346671484</v>
       </c>
       <c r="AU31" t="n">
-        <v>4.335500642311229</v>
+        <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>9.761797938888925</v>
+        <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>8.978992715922008</v>
+        <v>8.743337812133557</v>
       </c>
       <c r="AX31" t="n">
-        <v>10.13173879633067</v>
+        <v>6.251641321510506</v>
       </c>
     </row>
   </sheetData>
